--- a/studygo/day04/程序生成的/语音房基础功能1.xlsx
+++ b/studygo/day04/程序生成的/语音房基础功能1.xlsx
@@ -354,13 +354,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>&lt;p&gt;
-	房主点击左上角房间名称&lt;/p&gt;
+        <v>
+	房主点击左上角房间名称
 </v>
       </c>
       <c r="F2" t="str">
-        <v>&lt;p&gt;
-	直接跳转房间名称编辑弹框&lt;/p&gt;
+        <v>
+	直接跳转房间名称编辑弹框
 </v>
       </c>
     </row>
@@ -369,15 +369,14 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>&lt;p&gt;
-	删除房间名称点击保存&lt;/p&gt;
+        <v>
+	删除房间名称点击保存
 </v>
       </c>
       <c r="F3" t="str">
-        <v>&lt;p&gt;
-	android置灰不可点击&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="color:#d3d3d3;"&gt;或者&lt;/span&gt;&lt;span style="color:#000000;"&gt;ios点击后toast提示&lt;/span&gt;&lt;span style="color:#d3d3d3;"&gt;不可操作&lt;/span&gt;&lt;span style="color:#000000;"&gt;修改失败&lt;/span&gt;&lt;/p&gt;
+        <v>
+	android置灰不可点击
+	或者ios点击后toast提示不可操作修改失败
 </v>
       </c>
     </row>
@@ -386,10 +385,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="str">
-        <v>&lt;p&gt;修改为含有中英文、数字、特殊字符、表情等&lt;/p&gt;</v>
+        <v>修改为含有中英文、数字、特殊字符、表情等</v>
       </c>
       <c r="F4" t="str">
-        <v>&lt;p&gt;可以正常保存，房间内用户查看到为最新的房间名称&lt;/p&gt;</v>
+        <v>可以正常保存，房间内用户查看到为最新的房间名称</v>
       </c>
     </row>
     <row r="5">
@@ -397,15 +396,14 @@
         <v>4</v>
       </c>
       <c r="E5" t="str">
-        <v>&lt;p&gt;
-	修改房间名称为20个字（限制最大字数）&lt;/p&gt;
+        <v>
+	修改房间名称为20个字（限制最大字数）
 </v>
       </c>
       <c r="F5" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.修改为20个字可以正常保存并显示&lt;br /&gt;
-	2.限制无法输入超过20个字&lt;/p&gt;
+        <v>
+	1.修改为20个字可以正常保存并显示
+	2.限制无法输入超过20个字
 </v>
       </c>
     </row>
@@ -414,10 +412,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="str">
-        <v>&lt;p&gt;管理员和普通观众点击房间名称&lt;/p&gt;</v>
+        <v>管理员和普通观众点击房间名称</v>
       </c>
       <c r="F6" t="str">
-        <v>&lt;p&gt;点击无交互&lt;/p&gt;</v>
+        <v>点击无交互</v>
       </c>
     </row>
     <row r="7"/>
@@ -425,20 +423,16 @@
       <c r="A8" t="str">
         <v>语音房-房间id</v>
       </c>
-      <c r="B8" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C8" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B8" t="str"/>
+      <c r="C8" t="str"/>
       <c r="D8" t="str">
         <v>1</v>
       </c>
       <c r="E8" t="str">
-        <v>&lt;p&gt;房主/管理员/普通用户首次进入同一语音房，查看并点击房间id&lt;/p&gt;</v>
+        <v>房主/管理员/普通用户首次进入同一语音房，查看并点击房间id</v>
       </c>
       <c r="F8" t="str">
-        <v>&lt;p&gt;房间id是唯一标识码，点击无交互不可修改&lt;/p&gt;</v>
+        <v>房间id是唯一标识码，点击无交互不可修改</v>
       </c>
     </row>
     <row r="9">
@@ -446,10 +440,10 @@
         <v>2</v>
       </c>
       <c r="E9" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;1，退出语音房再次进入查看房间id&lt;/p&gt;</v>
+        <v>接步骤1，退出语音房再次进入查看房间id</v>
       </c>
       <c r="F9" t="str">
-        <v>&lt;p&gt;房间id不变&lt;/p&gt;</v>
+        <v>房间id不变</v>
       </c>
     </row>
     <row r="10">
@@ -457,10 +451,10 @@
         <v>3</v>
       </c>
       <c r="E10" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;1，更换设备登录同一账号，进入语音房查看房间id&lt;/p&gt;</v>
+        <v>接步骤1，更换设备登录同一账号，进入语音房查看房间id</v>
       </c>
       <c r="F10" t="str">
-        <v>&lt;p&gt;房间id不变&lt;/p&gt;</v>
+        <v>房间id不变</v>
       </c>
     </row>
     <row r="11"/>
@@ -468,20 +462,16 @@
       <c r="A12" t="str">
         <v>语音房-在线人数</v>
       </c>
-      <c r="B12" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C12" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B12" t="str"/>
+      <c r="C12" t="str"/>
       <c r="D12" t="str">
         <v>1</v>
       </c>
       <c r="E12" t="str">
-        <v>&lt;p&gt;语音房内有房主A和其他用户B，此时有用户进入语音房&lt;/p&gt;</v>
+        <v>语音房内有房主A和其他用户B，此时有用户进入语音房</v>
       </c>
       <c r="F12" t="str">
-        <v>&lt;p&gt;在线人数实时变化，人数+1（注意同时查看主界面和在线列表的在线人数）&lt;/p&gt;</v>
+        <v>在线人数实时变化，人数+1（注意同时查看主界面和在线列表的在线人数）</v>
       </c>
     </row>
     <row r="13">
@@ -489,10 +479,10 @@
         <v>2</v>
       </c>
       <c r="E13" t="str">
-        <v>&lt;p&gt;语音房内有房主A和其他用户B，此时有用户退出语音房&lt;/p&gt;</v>
+        <v>语音房内有房主A和其他用户B，此时有用户退出语音房</v>
       </c>
       <c r="F13" t="str">
-        <v>&lt;p&gt;在线人数实时变化，人数-1（注意同时查看主界面和在线列表的在线人数）&lt;/p&gt;</v>
+        <v>在线人数实时变化，人数-1（注意同时查看主界面和在线列表的在线人数）</v>
       </c>
     </row>
     <row r="14">
@@ -500,11 +490,11 @@
         <v>3</v>
       </c>
       <c r="E14" t="str">
-        <v>&lt;p&gt;未登录用户进入语音房/退出房间&lt;/p&gt;</v>
+        <v>未登录用户进入语音房/退出房间</v>
       </c>
       <c r="F14" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.在线人数不会变化
-&lt;br&gt;2.在线列表无法显示游客&lt;/p&gt;</v>
+        <v>1.在线人数不会变化
+2.在线列表无法显示游客</v>
       </c>
     </row>
     <row r="15">
@@ -512,13 +502,13 @@
         <v>4</v>
       </c>
       <c r="E15" t="str">
-        <v>&lt;p&gt;
-	用户kill应用退出语音房&lt;/p&gt;
+        <v>
+	用户kill应用退出语音房
 </v>
       </c>
       <c r="F15" t="str">
-        <v>&lt;p&gt;
-	不会实时变化（心跳时间测试环境大概1分半），超出心跳时间人数-1（注意同时查看主界面和在线列表的在线人数）&lt;/p&gt;
+        <v>
+	不会实时变化（心跳时间测试环境大概1分半），超出心跳时间人数-1（注意同时查看主界面和在线列表的在线人数）
 </v>
       </c>
     </row>
@@ -528,8 +518,8 @@
         <v>语音房-在线人数格式</v>
       </c>
       <c r="B17" t="str">
-        <v>&lt;p&gt;
-	由客户端开发自行保证，人数是信令过来的，不经过服务端，改不了数据&lt;/p&gt;
+        <v>
+	由客户端开发自行保证，人数是信令过来的，不经过服务端，改不了数据
 </v>
       </c>
       <c r="C17" t="str"/>
@@ -537,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="str">
-        <v>&lt;p&gt;语音房人数1000人以下&lt;/p&gt;</v>
+        <v>语音房人数1000人以下</v>
       </c>
       <c r="F17" t="str">
-        <v>&lt;p&gt;显示具体数字（注意同时查看主界面和在线列表的在线人数）&lt;/p&gt;</v>
+        <v>显示具体数字（注意同时查看主界面和在线列表的在线人数）</v>
       </c>
     </row>
     <row r="18">
@@ -548,10 +538,10 @@
         <v>2</v>
       </c>
       <c r="E18" t="str">
-        <v>&lt;p&gt;语音房内人数大于等于1000人&lt;/p&gt;</v>
+        <v>语音房内人数大于等于1000人</v>
       </c>
       <c r="F18" t="str">
-        <v>&lt;p&gt;显示数字999+（注意同时查看主界面和在线列表的在线人数）&lt;/p&gt;</v>
+        <v>显示数字999+（注意同时查看主界面和在线列表的在线人数）</v>
       </c>
     </row>
     <row r="19">
@@ -559,10 +549,10 @@
         <v>3</v>
       </c>
       <c r="E19" t="str">
-        <v>&lt;p&gt;点击在线人数查看在线列表&lt;/p&gt;</v>
+        <v>点击在线人数查看在线列表</v>
       </c>
       <c r="F19" t="str">
-        <v>&lt;p&gt;静态拉取100个，以拉取时数据为准，超出当前屏幕，往上滑动可以显示更多&lt;/p&gt;</v>
+        <v>静态拉取100个，以拉取时数据为准，超出当前屏幕，往上滑动可以显示更多</v>
       </c>
     </row>
     <row r="20"/>
@@ -576,10 +566,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="str">
-        <v>&lt;p&gt;房主点击更多按钮&lt;/p&gt;</v>
+        <v>房主点击更多按钮</v>
       </c>
       <c r="F21" t="str">
-        <v>&lt;p&gt;没有举报入口&lt;/p&gt;</v>
+        <v>没有举报入口</v>
       </c>
     </row>
     <row r="22">
@@ -587,10 +577,10 @@
         <v>2</v>
       </c>
       <c r="E22" t="str">
-        <v>&lt;p&gt;管理员点击更多按钮-选择举报房间&lt;/p&gt;</v>
+        <v>管理员点击更多按钮-选择举报房间</v>
       </c>
       <c r="F22" t="str">
-        <v>&lt;p&gt;选择任意一项举报项目提交后可举报成功并有toast提示&lt;/p&gt;</v>
+        <v>选择任意一项举报项目提交后可举报成功并有toast提示</v>
       </c>
     </row>
     <row r="23">
@@ -598,10 +588,10 @@
         <v>3</v>
       </c>
       <c r="E23" t="str">
-        <v>&lt;p&gt;麦上用户点击更多按钮-选择举报房间&lt;/p&gt;</v>
+        <v>麦上用户点击更多按钮-选择举报房间</v>
       </c>
       <c r="F23" t="str">
-        <v>&lt;p&gt;选择任意一项举报项目提交后可举报成功并有toast提示&lt;/p&gt;</v>
+        <v>选择任意一项举报项目提交后可举报成功并有toast提示</v>
       </c>
     </row>
     <row r="24">
@@ -609,10 +599,10 @@
         <v>4</v>
       </c>
       <c r="E24" t="str">
-        <v>&lt;p&gt;麦下观众点击更多按钮-选择举报房间&lt;/p&gt;</v>
+        <v>麦下观众点击更多按钮-选择举报房间</v>
       </c>
       <c r="F24" t="str">
-        <v>&lt;p&gt;选择任意一项举报项目提交后可举报成功并有toast提示&lt;/p&gt;</v>
+        <v>选择任意一项举报项目提交后可举报成功并有toast提示</v>
       </c>
     </row>
     <row r="25">
@@ -620,13 +610,13 @@
         <v>5</v>
       </c>
       <c r="E25" t="str">
-        <v>&lt;p&gt;
-	分别选择广告、色情、抢麦捣乱、声音违规、未成年直播、违法、其他&lt;/p&gt;
+        <v>
+	分别选择广告、色情、抢麦捣乱、声音违规、未成年直播、违法、其他
 </v>
       </c>
       <c r="F25" t="str">
-        <v>&lt;p&gt;
-	均可举报成功并有toast提示&lt;/p&gt;
+        <v>
+	均可举报成功并有toast提示
 </v>
       </c>
     </row>
@@ -635,20 +625,16 @@
       <c r="A27" t="str">
         <v>语音房-设置被取消用户为管理</v>
       </c>
-      <c r="B27" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C27" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B27" t="str"/>
+      <c r="C27" t="str"/>
       <c r="D27" t="str">
         <v>1</v>
       </c>
       <c r="E27" t="str">
-        <v>&lt;p&gt;用户被取消管理身份，房主再次点击该用户设置成管理&lt;/p&gt;</v>
+        <v>用户被取消管理身份，房主再次点击该用户设置成管理</v>
       </c>
       <c r="F27" t="str">
-        <v>&lt;p&gt;可设置成功，进入管理员列表显示该用户&lt;/p&gt;</v>
+        <v>可设置成功，进入管理员列表显示该用户</v>
       </c>
     </row>
     <row r="28"/>
@@ -658,23 +644,22 @@
       </c>
       <c r="B29" t="str"/>
       <c r="C29" t="str">
-        <v>&lt;p&gt;
-	语音房内有房主、管理员A（在线）、管理员B（未登录）、观众用户C&lt;/p&gt;
+        <v>
+	语音房内有房主、管理员A（在线）、管理员B（未登录）、观众用户C
 </v>
       </c>
       <c r="D29" t="str">
         <v>1</v>
       </c>
       <c r="E29" t="str">
-        <v>&lt;p&gt;
-	房主点击右上角&amp;hellip;按钮，选择管理列表&lt;/p&gt;
+        <v>
+	房主点击右上角按钮，选择管理列表
 </v>
       </c>
       <c r="F29" t="str">
-        <v>&lt;p&gt;
-	管理列表排序：管理员A&amp;gt;管理员B,管理员A带有在线标识，不显示观众&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="color:#ff0000;"&gt;备注：排序跟在线与不在线没有关系，按照昵称字母顺序排序，且没有在线标识&lt;/span&gt;&lt;/p&gt;
+        <v>
+	管理列表排序：管理员A管理员B,管理员A带有在线标识，不显示观众
+	备注：排序跟在线与不在线没有关系，按照昵称字母顺序排序，且没有在线标识
 </v>
       </c>
     </row>
@@ -683,10 +668,10 @@
         <v>2</v>
       </c>
       <c r="E30" t="str">
-        <v>&lt;p&gt;用户B登录上线，房主重进管理列表查看&lt;/p&gt;</v>
+        <v>用户B登录上线，房主重进管理列表查看</v>
       </c>
       <c r="F30" t="str">
-        <v>&lt;p&gt;管理列表排序：管理员AB排序以服务器实现为准，均带有在线标识&lt;/p&gt;</v>
+        <v>管理列表排序：管理员AB排序以服务器实现为准，均带有在线标识</v>
       </c>
     </row>
     <row r="31">
@@ -694,10 +679,10 @@
         <v>3</v>
       </c>
       <c r="E31" t="str">
-        <v>&lt;p&gt;房主添加观众C为管理&lt;/p&gt;</v>
+        <v>房主添加观众C为管理</v>
       </c>
       <c r="F31" t="str">
-        <v>&lt;p&gt;达到管理上限，不允许添加&lt;/p&gt;</v>
+        <v>达到管理上限，不允许添加</v>
       </c>
     </row>
     <row r="32">
@@ -705,13 +690,13 @@
         <v>4</v>
       </c>
       <c r="E32" t="str">
-        <v>&lt;p&gt;
-	撤销管理A后设置C为管理，查看管理列表&lt;/p&gt;
+        <v>
+	撤销管理A后设置C为管理，查看管理列表
 </v>
       </c>
       <c r="F32" t="str">
-        <v>&lt;p&gt;
-	管理列表排序：管理员BC排序以服务器实现为准&lt;span style="color:#ffffff;"&gt;，均带有在线标识&lt;/span&gt;&lt;/p&gt;
+        <v>
+	管理列表排序：管理员BC排序以服务器实现为准，均带有在线标识
 </v>
       </c>
     </row>
@@ -720,26 +705,21 @@
       <c r="A34" t="str">
         <v>管理列表-后台修改管理上限</v>
       </c>
-      <c r="B34" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C34" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B34" t="str"/>
+      <c r="C34" t="str"/>
       <c r="D34" t="str">
         <v>1</v>
       </c>
       <c r="E34" t="str">
-        <v>&lt;p&gt;
-	后台将管理员上限设置为&lt;br /&gt;
-	3，房主添加三个管理&lt;/p&gt;
+        <v>
+	后台将管理员上限设置为
+	3，房主添加三个管理
 </v>
       </c>
       <c r="F34" t="str">
-        <v>&lt;p&gt;
-	可以添加成功，管理员列表正常显示3个管理员的信息&lt;/p&gt;
-&lt;p&gt;
-	备注：sdk设置上限为9个&lt;/p&gt;
+        <v>
+	可以添加成功，管理员列表正常显示3个管理员的信息
+	备注：sdk设置上限为9个
 </v>
       </c>
     </row>
@@ -748,13 +728,13 @@
         <v>2</v>
       </c>
       <c r="E35" t="str">
-        <v>&lt;p&gt;
-	再次添加一个管理&lt;/p&gt;
+        <v>
+	再次添加一个管理
 </v>
       </c>
       <c r="F35" t="str">
-        <v>&lt;p&gt;
-	达到管理上限，不允许添加，提示设置失败&lt;/p&gt;
+        <v>
+	达到管理上限，不允许添加，提示设置失败
 </v>
       </c>
     </row>
@@ -763,20 +743,18 @@
       <c r="A37" t="str">
         <v>房主状态-麦克风状态</v>
       </c>
-      <c r="B37" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B37" t="str"/>
       <c r="C37" t="str">
-        <v>&lt;p&gt;语音房内有房主和普通用户A&lt;/p&gt;</v>
+        <v>语音房内有房主和普通用户A</v>
       </c>
       <c r="D37" t="str">
         <v>1</v>
       </c>
       <c r="E37" t="str">
-        <v>&lt;p&gt;房主说话，10秒后暂停，房主及用户A查看&lt;/p&gt;</v>
+        <v>房主说话，10秒后暂停，房主及用户A查看</v>
       </c>
       <c r="F37" t="str">
-        <v>&lt;p&gt;说话期间房主头像显示说话的光圈动效，停止说话后光圈动效不显示&lt;/p&gt;</v>
+        <v>说话期间房主头像显示说话的光圈动效，停止说话后光圈动效不显示</v>
       </c>
     </row>
     <row r="38">
@@ -784,11 +762,11 @@
         <v>2</v>
       </c>
       <c r="E38" t="str">
-        <v>&lt;p&gt;房主关闭麦克风，10秒后开启麦克风，房主及用户A查看&lt;/p&gt;</v>
+        <v>房主关闭麦克风，10秒后开启麦克风，房主及用户A查看</v>
       </c>
       <c r="F38" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.关麦后房主显示关麦状态图标
-&lt;br&gt;2.重新开启麦克风后，房主恢复上麦状态&lt;/p&gt;</v>
+        <v>1.关麦后房主显示关麦状态图标
+2.重新开启麦克风后，房主恢复上麦状态</v>
       </c>
     </row>
     <row r="39">
@@ -796,15 +774,14 @@
         <v>3</v>
       </c>
       <c r="E39" t="str">
-        <v>&lt;p&gt;
-	房主离开当前语音房，10秒后重进语音房，用户A查看&lt;/p&gt;
+        <v>
+	房主离开当前语音房，10秒后重进语音房，用户A查看
 </v>
       </c>
       <c r="F39" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.房主离开期间，房主麦位显示房主离开状态&lt;br /&gt;
-	2.房主重进语音房后，麦位恢复点亮房主头像（昵称是常驻显示的）&lt;/p&gt;
+        <v>
+	1.房主离开期间，房主麦位显示房主离开状态
+	2.房主重进语音房后，麦位恢复点亮房主头像（昵称是常驻显示的）
 </v>
       </c>
     </row>
@@ -813,10 +790,10 @@
         <v>4</v>
       </c>
       <c r="E40" t="str">
-        <v>&lt;p&gt;男性房主在房间内，查看房主标识&lt;/p&gt;</v>
+        <v>男性房主在房间内，查看房主标识</v>
       </c>
       <c r="F40" t="str">
-        <v>&lt;p&gt;显示蓝性房主标识&lt;/p&gt;</v>
+        <v>显示蓝性房主标识</v>
       </c>
     </row>
     <row r="41">
@@ -824,10 +801,10 @@
         <v>5</v>
       </c>
       <c r="E41" t="str">
-        <v>&lt;p&gt;女性房主在房间内，查看房主标识&lt;/p&gt;</v>
+        <v>女性房主在房间内，查看房主标识</v>
       </c>
       <c r="F41" t="str">
-        <v>&lt;p&gt;显示女性房主标识&lt;/p&gt;</v>
+        <v>显示女性房主标识</v>
       </c>
     </row>
     <row r="42"/>
@@ -835,20 +812,16 @@
       <c r="A43" t="str">
         <v>房间加锁-设置密码校验</v>
       </c>
-      <c r="B43" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C43" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B43" t="str"/>
+      <c r="C43" t="str"/>
       <c r="D43" t="str">
         <v>1</v>
       </c>
       <c r="E43" t="str">
-        <v>&lt;p&gt;房主设置密码时，不填入任何密码&lt;/p&gt;</v>
+        <v>房主设置密码时，不填入任何密码</v>
       </c>
       <c r="F43" t="str">
-        <v>&lt;p&gt;保存按钮置灰，不可点击&lt;/p&gt;</v>
+        <v>保存按钮置灰，不可点击</v>
       </c>
     </row>
     <row r="44">
@@ -856,13 +829,13 @@
         <v>2</v>
       </c>
       <c r="E44" t="str">
-        <v>&lt;p&gt;
-	输入不足4&lt;span style="color:#ffffff;"&gt;6&lt;/span&gt;位数字&lt;/p&gt;
+        <v>
+	输入不足46位数字
 </v>
       </c>
       <c r="F44" t="str">
-        <v>&lt;p&gt;
-	保存按钮置灰，不可点击&lt;/p&gt;
+        <v>
+	保存按钮置灰，不可点击
 </v>
       </c>
     </row>
@@ -871,15 +844,14 @@
         <v>3</v>
       </c>
       <c r="E45" t="str">
-        <v>&lt;p&gt;
-	输入非数字&lt;/p&gt;
+        <v>
+	输入非数字
 </v>
       </c>
       <c r="F45" t="str">
-        <v>&lt;p&gt;
-	保存提示：密码只能为数字&lt;/p&gt;
-&lt;p&gt;
-	ios：只能输入数字&lt;/p&gt;
+        <v>
+	保存提示：密码只能为数字
+	ios：只能输入数字
 </v>
       </c>
     </row>
@@ -888,10 +860,10 @@
         <v>4</v>
       </c>
       <c r="E46" t="str">
-        <v>&lt;p&gt;设置房间密码保存直接后点击返回&lt;/p&gt;</v>
+        <v>设置房间密码保存直接后点击返回</v>
       </c>
       <c r="F46" t="str">
-        <v>&lt;p&gt;关闭弹窗，房间没有加锁，其他用户进入此房间不需要输入密码&lt;/p&gt;</v>
+        <v>关闭弹窗，房间没有加锁，其他用户进入此房间不需要输入密码</v>
       </c>
     </row>
     <row r="47">
@@ -899,10 +871,10 @@
         <v>5</v>
       </c>
       <c r="E47" t="str">
-        <v>&lt;p&gt;已经加锁成功后在弹框删除密码并保存&lt;/p&gt;</v>
+        <v>已经加锁成功后在弹框删除密码并保存</v>
       </c>
       <c r="F47" t="str">
-        <v>&lt;p&gt;房间解锁成功，其他用户进入不需要输入密码即可进入&lt;/p&gt;</v>
+        <v>房间解锁成功，其他用户进入不需要输入密码即可进入</v>
       </c>
     </row>
     <row r="48"/>
@@ -910,23 +882,21 @@
       <c r="A49" t="str">
         <v>房间加密-输入密码校验</v>
       </c>
-      <c r="B49" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B49" t="str"/>
       <c r="C49" t="str">
-        <v>&lt;p&gt;房间已加密&lt;/p&gt;</v>
+        <v>房间已加密</v>
       </c>
       <c r="D49" t="str">
         <v>1</v>
       </c>
       <c r="E49" t="str">
-        <v>&lt;p&gt;
-	进入房间，在密码校验弹框中输入错误的4位密码&lt;/p&gt;
+        <v>
+	进入房间，在密码校验弹框中输入错误的4位密码
 </v>
       </c>
       <c r="F49" t="str">
-        <v>&lt;p&gt;
-	校验失败：弹窗上文案提示&amp;ldquo;密码错误，请重新输入&amp;rdquo;，点击删除按钮逐个清除已输入的密码&lt;/p&gt;
+        <v>
+	校验失败：弹窗上文案提示密码错误，请重新输入，点击删除按钮逐个清除已输入的密码
 </v>
       </c>
     </row>
@@ -935,13 +905,13 @@
         <v>2</v>
       </c>
       <c r="E50" t="str">
-        <v>&lt;p&gt;
-	输入不足4位数字&lt;/p&gt;
+        <v>
+	输入不足4位数字
 </v>
       </c>
       <c r="F50" t="str">
-        <v>&lt;p&gt;
-	提交按钮置灰，不可保存&lt;/p&gt;
+        <v>
+	提交按钮置灰，不可保存
 </v>
       </c>
     </row>
@@ -950,13 +920,13 @@
         <v>3</v>
       </c>
       <c r="E51" t="str">
-        <v>&lt;p&gt;
-	输入正确密码后点击返回按钮（Android点击back按键）&lt;/p&gt;
+        <v>
+	输入正确密码后点击返回按钮（Android点击back按键）
 </v>
       </c>
       <c r="F51" t="str">
-        <v>&lt;p&gt;
-	关闭弹框，无法进入房间，返回上一页&lt;/p&gt;
+        <v>
+	关闭弹框，无法进入房间，返回上一页
 </v>
       </c>
     </row>
@@ -965,13 +935,13 @@
         <v>4</v>
       </c>
       <c r="E52" t="str">
-        <v>&lt;p&gt;
-	输入错误密码，提交之前房主取消了房间加密，用户提交错误密码&lt;/p&gt;
+        <v>
+	输入错误密码，提交之前房主取消了房间加密，用户提交错误密码
 </v>
       </c>
       <c r="F52" t="str">
-        <v>&lt;p&gt;
-	特殊情况，不造成异常即可，用户可以正常进入房间（toast提示密码正确，正在进入房间--此提示产品可接受）&lt;/p&gt;
+        <v>
+	特殊情况，不造成异常即可，用户可以正常进入房间（toast提示密码正确，正在进入房间--此提示产品可接受）
 </v>
       </c>
     </row>
@@ -986,10 +956,10 @@
         <v>1</v>
       </c>
       <c r="E54" t="str">
-        <v>&lt;p&gt;普通用户点击房间右上角…按钮&lt;/p&gt;</v>
+        <v>普通用户点击房间右上角…按钮</v>
       </c>
       <c r="F54" t="str">
-        <v>&lt;p&gt;无房间加锁入口&lt;/p&gt;</v>
+        <v>无房间加锁入口</v>
       </c>
     </row>
     <row r="55">
@@ -997,10 +967,10 @@
         <v>2</v>
       </c>
       <c r="E55" t="str">
-        <v>&lt;p&gt;用户被设置为管理员后，点击房间右上角…按钮&lt;/p&gt;</v>
+        <v>用户被设置为管理员后，点击房间右上角…按钮</v>
       </c>
       <c r="F55" t="str">
-        <v>&lt;p&gt;有房间加锁入口，点击后可以正常给房间加锁，其他用户进入房间需要输入正确密码&lt;/p&gt;</v>
+        <v>有房间加锁入口，点击后可以正常给房间加锁，其他用户进入房间需要输入正确密码</v>
       </c>
     </row>
     <row r="56">
@@ -1008,10 +978,10 @@
         <v>3</v>
       </c>
       <c r="E56" t="str">
-        <v>&lt;p&gt;用户被设置为管理员后，点击已加锁房间右上角…按钮&lt;/p&gt;</v>
+        <v>用户被设置为管理员后，点击已加锁房间右上角…按钮</v>
       </c>
       <c r="F56" t="str">
-        <v>&lt;p&gt;有房间加锁入口，点击后可以重置房间密码，其他用户进入房间需要输入最新的密码&lt;/p&gt;</v>
+        <v>有房间加锁入口，点击后可以重置房间密码，其他用户进入房间需要输入最新的密码</v>
       </c>
     </row>
     <row r="57">
@@ -1019,10 +989,10 @@
         <v>4</v>
       </c>
       <c r="E57" t="str">
-        <v>&lt;p&gt;用户被设置为管理员后，点击已加锁房间右上角…按钮&lt;/p&gt;</v>
+        <v>用户被设置为管理员后，点击已加锁房间右上角…按钮</v>
       </c>
       <c r="F57" t="str">
-        <v>&lt;p&gt;有房间加锁入口，点击后可以删除房间密码，其他用户进入房间不需要输入密码&lt;/p&gt;</v>
+        <v>有房间加锁入口，点击后可以删除房间密码，其他用户进入房间不需要输入密码</v>
       </c>
     </row>
     <row r="58"/>
@@ -1030,20 +1000,16 @@
       <c r="A59" t="str">
         <v>房间加锁-房主和管理员进入</v>
       </c>
-      <c r="B59" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C59" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B59" t="str"/>
+      <c r="C59" t="str"/>
       <c r="D59" t="str">
         <v>1</v>
       </c>
       <c r="E59" t="str">
-        <v>&lt;p&gt;房主进入自己加密的房间&lt;/p&gt;</v>
+        <v>房主进入自己加密的房间</v>
       </c>
       <c r="F59" t="str">
-        <v>&lt;p&gt;不需要密码校验，直接进入&lt;/p&gt;</v>
+        <v>不需要密码校验，直接进入</v>
       </c>
     </row>
     <row r="60">
@@ -1051,10 +1017,10 @@
         <v>2</v>
       </c>
       <c r="E60" t="str">
-        <v>&lt;p&gt;管理员进入房主加密的房间&lt;/p&gt;</v>
+        <v>管理员进入房主加密的房间</v>
       </c>
       <c r="F60" t="str">
-        <v>&lt;p&gt;不需要密码校验，直接进入&lt;/p&gt;</v>
+        <v>不需要密码校验，直接进入</v>
       </c>
     </row>
     <row r="61">
@@ -1062,15 +1028,14 @@
         <v>3</v>
       </c>
       <c r="E61" t="str">
-        <v>&lt;p&gt;
-	管理员进入其他管理员加密的房间&lt;/p&gt;
-&lt;p&gt;
-	备注：管理员没有加锁解锁权限&lt;/p&gt;
+        <v>
+	管理员进入其他管理员加密的房间
+	备注：管理员没有加锁解锁权限
 </v>
       </c>
       <c r="F61" t="str">
-        <v>&lt;p&gt;
-	不需要密码校验，直接进入&lt;/p&gt;
+        <v>
+	不需要密码校验，直接进入
 </v>
       </c>
     </row>
@@ -1079,23 +1044,21 @@
       <c r="A63" t="str">
         <v>公告-设置广告检查</v>
       </c>
-      <c r="B63" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B63" t="str"/>
       <c r="C63" t="str">
-        <v>&lt;p&gt;公告编辑页&lt;/p&gt;</v>
+        <v>公告编辑页</v>
       </c>
       <c r="D63" t="str">
         <v>1</v>
       </c>
       <c r="E63" t="str">
-        <v>&lt;p&gt;
-	房主编辑公告弹框界面，不输入内容，点击保存&lt;/p&gt;
+        <v>
+	房主编辑公告弹框界面，不输入内容，点击保存
 </v>
       </c>
       <c r="F63" t="str">
-        <v>&lt;p&gt;
-	可以保存成功，显示暂无公告&lt;/p&gt;
+        <v>
+	可以保存成功，显示暂无公告
 </v>
       </c>
     </row>
@@ -1104,11 +1067,11 @@
         <v>2</v>
       </c>
       <c r="E64" t="str">
-        <v>&lt;p&gt;填写公告时，标题和内容均包含中英文/数字/特殊字符/表情&lt;/p&gt;</v>
+        <v>填写公告时，标题和内容均包含中英文/数字/特殊字符/表情</v>
       </c>
       <c r="F64" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.可以正常保存
-&lt;br&gt;2.用户点击公告区域调起公告查看，可以正常显示&lt;/p&gt;</v>
+        <v>1.可以正常保存
+2.用户点击公告区域调起公告查看，可以正常显示</v>
       </c>
     </row>
     <row r="65">
@@ -1116,10 +1079,10 @@
         <v>3</v>
       </c>
       <c r="E65" t="str">
-        <v>&lt;p&gt;内容超过500个字&lt;/p&gt;</v>
+        <v>内容超过500个字</v>
       </c>
       <c r="F65" t="str">
-        <v>&lt;p&gt;超出不可输入&lt;/p&gt;</v>
+        <v>超出不可输入</v>
       </c>
     </row>
     <row r="66">
@@ -1127,10 +1090,10 @@
         <v>4</v>
       </c>
       <c r="E66" t="str">
-        <v>&lt;p&gt;输入过程中点击取消按钮&lt;/p&gt;</v>
+        <v>输入过程中点击取消按钮</v>
       </c>
       <c r="F66" t="str">
-        <v>&lt;p&gt;关闭弹框，公告没有变化&lt;/p&gt;</v>
+        <v>关闭弹框，公告没有变化</v>
       </c>
     </row>
     <row r="67">
@@ -1138,11 +1101,11 @@
         <v>5</v>
       </c>
       <c r="E67" t="str">
-        <v>&lt;p&gt;房主点击右上角更多按钮，选择编辑公告，输入内容为最大字数（内容500个字）&lt;/p&gt;</v>
+        <v>房主点击右上角更多按钮，选择编辑公告，输入内容为最大字数（内容500个字）</v>
       </c>
       <c r="F67" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.房间主界面房主昵称下方显示公告的前10个字，超出…显示
-&lt;br&gt;2.调起公告栏可以完整显示内容&lt;/p&gt;</v>
+        <v>1.房间主界面房主昵称下方显示公告的前10个字，超出…显示
+2.调起公告栏可以完整显示内容</v>
       </c>
     </row>
     <row r="68"/>
@@ -1150,20 +1113,16 @@
       <c r="A69" t="str">
         <v>公告-公告显示</v>
       </c>
-      <c r="B69" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C69" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B69" t="str"/>
+      <c r="C69" t="str"/>
       <c r="D69" t="str">
         <v>1</v>
       </c>
       <c r="E69" t="str">
-        <v>&lt;p&gt;当前没有设置广告，用户首次进入房间&lt;/p&gt;</v>
+        <v>当前没有设置广告，用户首次进入房间</v>
       </c>
       <c r="F69" t="str">
-        <v>&lt;p&gt;公屏不显示房间公告&lt;/p&gt;</v>
+        <v>公屏不显示房间公告</v>
       </c>
     </row>
     <row r="70">
@@ -1171,10 +1130,10 @@
         <v>2</v>
       </c>
       <c r="E70" t="str">
-        <v>&lt;p&gt;当前语音房已设置房间公告，用户首次进入房间&lt;/p&gt;</v>
+        <v>当前语音房已设置房间公告，用户首次进入房间</v>
       </c>
       <c r="F70" t="str">
-        <v>&lt;p&gt;公屏显示该房间的公告&lt;/p&gt;</v>
+        <v>公屏显示该房间的公告</v>
       </c>
     </row>
     <row r="71">
@@ -1182,10 +1141,10 @@
         <v>3</v>
       </c>
       <c r="E71" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;2，房间公告未修改，用户再次进入房间&lt;/p&gt;</v>
+        <v>接步骤2，房间公告未修改，用户再次进入房间</v>
       </c>
       <c r="F71" t="str">
-        <v>&lt;p&gt;公屏不显示房间公告&lt;/p&gt;</v>
+        <v>公屏不显示房间公告</v>
       </c>
     </row>
     <row r="72">
@@ -1193,10 +1152,10 @@
         <v>4</v>
       </c>
       <c r="E72" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;3，修改房间公告后，用户进入此房间&lt;/p&gt;</v>
+        <v>接步骤3，修改房间公告后，用户进入此房间</v>
       </c>
       <c r="F72" t="str">
-        <v>&lt;p&gt;公屏显示该房间最新的公告&lt;/p&gt;</v>
+        <v>公屏显示该房间最新的公告</v>
       </c>
     </row>
     <row r="73"/>
@@ -1204,23 +1163,19 @@
       <c r="A74" t="str">
         <v>退出房间-其他方式</v>
       </c>
-      <c r="B74" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C74" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B74" t="str"/>
+      <c r="C74" t="str"/>
       <c r="D74" t="str">
         <v>1</v>
       </c>
       <c r="E74" t="str">
-        <v>&lt;p&gt;
-	房主点击右上角更多按钮，选择退出房间&lt;/p&gt;
+        <v>
+	房主点击右上角更多按钮，选择退出房间
 </v>
       </c>
       <c r="F74" t="str">
-        <v>&lt;p&gt;
-	离开当前房间，没有二次确认弹框&lt;/p&gt;
+        <v>
+	离开当前房间，没有二次确认弹框
 </v>
       </c>
     </row>
@@ -1229,10 +1184,10 @@
         <v>2</v>
       </c>
       <c r="E75" t="str">
-        <v>&lt;p&gt;管理员、普通观众点击右上角更多按钮，选择退出房间&lt;/p&gt;</v>
+        <v>管理员、普通观众点击右上角更多按钮，选择退出房间</v>
       </c>
       <c r="F75" t="str">
-        <v>&lt;p&gt;离开当前房间，没有二次确认弹框&lt;/p&gt;</v>
+        <v>离开当前房间，没有二次确认弹框</v>
       </c>
     </row>
     <row r="76">
@@ -1240,15 +1195,14 @@
         <v>3</v>
       </c>
       <c r="E76" t="str">
-        <v>&lt;p&gt;
-	房主/管理员/观众点击左上角返回按钮&lt;/p&gt;
+        <v>
+	房主/管理员/观众点击左上角返回按钮
 </v>
       </c>
       <c r="F76" t="str">
-        <v>&lt;p&gt;
-	&lt;span style="color:#ffffff;"&gt;均可以弹出二次确认框：确定退出当前房间吗？有选择按钮：下次不再提醒&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	房间显示最小化，点击最小化中关闭按钮，可正常退出房间&lt;/p&gt;
+        <v>
+	均可以弹出二次确认框：确定退出当前房间吗？有选择按钮：下次不再提醒
+	房间显示最小化，点击最小化中关闭按钮，可正常退出房间
 </v>
       </c>
     </row>
@@ -1257,17 +1211,14 @@
         <v>4</v>
       </c>
       <c r="E77" t="str">
-        <v>&lt;p&gt;
-	语音房内点击手机的back按钮（Android）&lt;/p&gt;
+        <v>
+	语音房内点击手机的back按钮（Android）
 </v>
       </c>
       <c r="F77" t="str">
-        <v>&lt;p&gt;
-	&lt;span style="color:#ffffff;"&gt;均可以弹出二次确认框：确定退出当前房间吗？有选择按钮：下次不再提醒&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;
-	房间显示最小化，点击最小化中关闭按钮，可正常退出房间&lt;/p&gt;
+        <v>
+	均可以弹出二次确认框：确定退出当前房间吗？有选择按钮：下次不再提醒
+	房间显示最小化，点击最小化中关闭按钮，可正常退出房间
 </v>
       </c>
     </row>
@@ -1276,22 +1227,20 @@
       <c r="A79" t="str">
         <v>活动条-配置多个</v>
       </c>
-      <c r="B79" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B79" t="str"/>
       <c r="C79" t="str">
-        <v>&lt;p&gt;后台配置N个（N&gt;=3）语音房活动条&lt;/p&gt;</v>
+        <v>后台配置N个（N&gt;=3）语音房活动条</v>
       </c>
       <c r="D79" t="str">
         <v>1</v>
       </c>
       <c r="E79" t="str">
-        <v>&lt;p&gt;进入对应语音房，查看活动条&lt;/p&gt;</v>
+        <v>进入对应语音房，查看活动条</v>
       </c>
       <c r="F79" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.活动条右上角展示切换按钮
-&lt;br&gt;2.优先展示排序优先级最高的活动条
-&lt;br&gt;3.点击可跳转到配置的地址&lt;/p&gt;</v>
+        <v>1.活动条右上角展示切换按钮
+2.优先展示排序优先级最高的活动条
+3.点击可跳转到配置的地址</v>
       </c>
     </row>
     <row r="80">
@@ -1299,11 +1248,11 @@
         <v>2</v>
       </c>
       <c r="E80" t="str">
-        <v>&lt;p&gt;点击切换按钮&lt;/p&gt;</v>
+        <v>点击切换按钮</v>
       </c>
       <c r="F80" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.切换到排序优先级第二的活动条
-&lt;br&gt;2.点击可跳转到配置的地址&lt;/p&gt;</v>
+        <v>1.切换到排序优先级第二的活动条
+2.点击可跳转到配置的地址</v>
       </c>
     </row>
     <row r="81">
@@ -1311,11 +1260,11 @@
         <v>3</v>
       </c>
       <c r="E81" t="str">
-        <v>&lt;p&gt;继续点击切换按钮&lt;/p&gt;</v>
+        <v>继续点击切换按钮</v>
       </c>
       <c r="F81" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.按照后台配置的排序优先级显示，每一个活动条均可正常跳转
-&lt;br&gt;2.切换到最后一个活动条后继续点击切换按钮，可切换到第一个活动条，循环展示&lt;/p&gt;</v>
+        <v>1.按照后台配置的排序优先级显示，每一个活动条均可正常跳转
+2.切换到最后一个活动条后继续点击切换按钮，可切换到第一个活动条，循环展示</v>
       </c>
     </row>
     <row r="82"/>
@@ -1323,20 +1272,18 @@
       <c r="A83" t="str">
         <v>活动条-按照房间id展示</v>
       </c>
-      <c r="B83" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B83" t="str"/>
       <c r="C83" t="str">
-        <v>&lt;p&gt;后台配置语音房A显示活动条&lt;br&gt;1，语音房B显示活动条&lt;br&gt;2，语音房C未配置活动条&lt;/p&gt;</v>
+        <v>后台配置语音房A显示活动条1，语音房B显示活动条2，语音房C未配置活动条</v>
       </c>
       <c r="D83" t="str">
         <v>1</v>
       </c>
       <c r="E83" t="str">
-        <v>&lt;p&gt;进入语音房A，查看语音房活动条入口&lt;/p&gt;</v>
+        <v>进入语音房A，查看语音房活动条入口</v>
       </c>
       <c r="F83" t="str">
-        <v>&lt;p&gt;显示活动条1&lt;/p&gt;</v>
+        <v>显示活动条1</v>
       </c>
     </row>
     <row r="84">
@@ -1344,10 +1291,10 @@
         <v>2</v>
       </c>
       <c r="E84" t="str">
-        <v>&lt;p&gt;退出语音房A，进入语音房B&lt;/p&gt;</v>
+        <v>退出语音房A，进入语音房B</v>
       </c>
       <c r="F84" t="str">
-        <v>&lt;p&gt;显示活动条2&lt;/p&gt;</v>
+        <v>显示活动条2</v>
       </c>
     </row>
     <row r="85">
@@ -1355,10 +1302,10 @@
         <v>3</v>
       </c>
       <c r="E85" t="str">
-        <v>&lt;p&gt;退出语音房B，进入语音房C&lt;/p&gt;</v>
+        <v>退出语音房B，进入语音房C</v>
       </c>
       <c r="F85" t="str">
-        <v>&lt;p&gt;不显示活动条&lt;/p&gt;</v>
+        <v>不显示活动条</v>
       </c>
     </row>
     <row r="86">
@@ -1366,10 +1313,10 @@
         <v>4</v>
       </c>
       <c r="E86" t="str">
-        <v>&lt;p&gt;kill进程重启应用，进入语音房ABC&lt;/p&gt;</v>
+        <v>kill进程重启应用，进入语音房ABC</v>
       </c>
       <c r="F86" t="str">
-        <v>&lt;p&gt;语音房AB正常显示活动条1\2,语音房C不显示语音房&lt;/p&gt;</v>
+        <v>语音房AB正常显示活动条1\2,语音房C不显示语音房</v>
       </c>
     </row>
     <row r="87"/>
@@ -1377,21 +1324,17 @@
       <c r="A88" t="str">
         <v>语音房-封闭座位（管理员对空座位）</v>
       </c>
-      <c r="B88" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C88" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B88" t="str"/>
+      <c r="C88" t="str"/>
       <c r="D88" t="str">
         <v>1</v>
       </c>
       <c r="E88" t="str">
-        <v>&lt;p&gt;管理员点击空座位-选择封闭座位&lt;/p&gt;</v>
+        <v>管理员点击空座位-选择封闭座位</v>
       </c>
       <c r="F88" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.点击即可关闭座位，座位显示封闭的样式，且toast提示“封闭成功”
-&lt;br&gt;2.管理员查看该栏变成：解封座位&lt;/p&gt;</v>
+        <v>1.点击即可关闭座位，座位显示封闭的样式，且toast提示“封闭成功”
+2.管理员查看该栏变成：解封座位</v>
       </c>
     </row>
     <row r="89">
@@ -1399,10 +1342,10 @@
         <v>2</v>
       </c>
       <c r="E89" t="str">
-        <v>&lt;p&gt;其他用户点击封禁座位&lt;/p&gt;</v>
+        <v>其他用户点击封禁座位</v>
       </c>
       <c r="F89" t="str">
-        <v>&lt;p&gt;toast提示“当前座位已关闭”&lt;/p&gt;</v>
+        <v>toast提示“当前座位已关闭”</v>
       </c>
     </row>
     <row r="90">
@@ -1410,10 +1353,10 @@
         <v>3</v>
       </c>
       <c r="E90" t="str">
-        <v>&lt;p&gt;管理员点击封闭座位-选择解封座位&lt;/p&gt;</v>
+        <v>管理员点击封闭座位-选择解封座位</v>
       </c>
       <c r="F90" t="str">
-        <v>&lt;p&gt;座位恢复成为空座位状态，且toast提示“解封成功”&lt;/p&gt;</v>
+        <v>座位恢复成为空座位状态，且toast提示“解封成功”</v>
       </c>
     </row>
     <row r="91">
@@ -1421,10 +1364,10 @@
         <v>4</v>
       </c>
       <c r="E91" t="str">
-        <v>&lt;p&gt;其他用户点击该座位&lt;/p&gt;</v>
+        <v>其他用户点击该座位</v>
       </c>
       <c r="F91" t="str">
-        <v>&lt;p&gt;可以成功上麦&lt;/p&gt;</v>
+        <v>可以成功上麦</v>
       </c>
     </row>
     <row r="92"/>
@@ -1432,20 +1375,16 @@
       <c r="A93" t="str">
         <v>封闭座位-退出房间重进/退出app重进/卸载app重装</v>
       </c>
-      <c r="B93" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C93" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B93" t="str"/>
+      <c r="C93" t="str"/>
       <c r="D93" t="str">
         <v>1</v>
       </c>
       <c r="E93" t="str">
-        <v>&lt;p&gt;座位已封禁，房主/管理员/观众退出房间重进查看&lt;/p&gt;</v>
+        <v>座位已封禁，房主/管理员/观众退出房间重进查看</v>
       </c>
       <c r="F93" t="str">
-        <v>&lt;p&gt;座位保持封禁状态，状态保存在服务器&lt;/p&gt;</v>
+        <v>座位保持封禁状态，状态保存在服务器</v>
       </c>
     </row>
     <row r="94">
@@ -1453,10 +1392,10 @@
         <v>2</v>
       </c>
       <c r="E94" t="str">
-        <v>&lt;p&gt;座位已封禁，房主/管理员/观众退出app重进查看&lt;/p&gt;</v>
+        <v>座位已封禁，房主/管理员/观众退出app重进查看</v>
       </c>
       <c r="F94" t="str">
-        <v>&lt;p&gt;座位保持封禁状态，状态保存在服务器&lt;/p&gt;</v>
+        <v>座位保持封禁状态，状态保存在服务器</v>
       </c>
     </row>
     <row r="95">
@@ -1464,10 +1403,10 @@
         <v>3</v>
       </c>
       <c r="E95" t="str">
-        <v>&lt;p&gt;座位已封禁，房主/管理员/观众更换设备查看&lt;/p&gt;</v>
+        <v>座位已封禁，房主/管理员/观众更换设备查看</v>
       </c>
       <c r="F95" t="str">
-        <v>&lt;p&gt;座位保持封禁状态，状态保存在服务器&lt;/p&gt;</v>
+        <v>座位保持封禁状态，状态保存在服务器</v>
       </c>
     </row>
     <row r="96"/>
@@ -1475,25 +1414,20 @@
       <c r="A97" t="str">
         <v>语音房-封闭座位声音（管理员对空座位）</v>
       </c>
-      <c r="B97" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C97" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B97" t="str"/>
+      <c r="C97" t="str"/>
       <c r="D97" t="str">
         <v>1</v>
       </c>
       <c r="E97" t="str">
-        <v>&lt;p&gt;
-	管理员点击空座位-选择封闭座位声音&lt;/p&gt;
+        <v>
+	管理员点击空座位-选择封闭座位声音
 </v>
       </c>
       <c r="F97" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.座位显示禁言状态，toast提示&amp;ldquo;封闭座位声音成功&amp;rdquo;&lt;br /&gt;
-	2.再次点击空座位，对应操作变更为：开启座位声音&lt;/p&gt;
+        <v>
+	1.座位显示禁言状态，toast提示封闭座位声音成功
+	2.再次点击空座位，对应操作变更为：开启座位声音
 </v>
       </c>
     </row>
@@ -1502,10 +1436,10 @@
         <v>2</v>
       </c>
       <c r="E98" t="str">
-        <v>&lt;p&gt;此时有用户上麦到该座位&lt;/p&gt;</v>
+        <v>此时有用户上麦到该座位</v>
       </c>
       <c r="F98" t="str">
-        <v>&lt;p&gt;可以正常在该座位上麦下麦，但是无法开启麦克风说话&lt;/p&gt;</v>
+        <v>可以正常在该座位上麦下麦，但是无法开启麦克风说话</v>
       </c>
     </row>
     <row r="99">
@@ -1513,15 +1447,14 @@
         <v>3</v>
       </c>
       <c r="E99" t="str">
-        <v>&lt;p&gt;
-	管理员再次点击空座位-选择开启座位声音&lt;/p&gt;
+        <v>
+	管理员再次点击空座位-选择开启座位声音
 </v>
       </c>
       <c r="F99" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.座位恢复空座位状态，toast提示&amp;ldquo;开启座位声音成功&amp;rdquo;&lt;br /&gt;
-	2.再次点击空座位，对应操作变更为：关闭座位声音&lt;/p&gt;
+        <v>
+	1.座位恢复空座位状态，toast提示开启座位声音成功
+	2.再次点击空座位，对应操作变更为：关闭座位声音
 </v>
       </c>
     </row>
@@ -1530,26 +1463,21 @@
       <c r="A101" t="str">
         <v>点有人座位-封闭座位声音（房主/管理员）</v>
       </c>
-      <c r="B101" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C101" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B101" t="str"/>
+      <c r="C101" t="str"/>
       <c r="D101" t="str">
         <v>1</v>
       </c>
       <c r="E101" t="str">
-        <v>&lt;p&gt;
-	房主点击座位上的用户-资料卡点击操作-选择封闭座位声音&lt;/p&gt;
+        <v>
+	房主点击座位上的用户-资料卡点击操作-选择封闭座位声音
 </v>
       </c>
       <c r="F101" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.关闭当前座位麦克风，操作成功提示&amp;ldquo;封闭座位声音成功&amp;rdquo;&lt;br /&gt;
-	2.用户侧toast提示：当前座位已禁麦&lt;br /&gt;
-	3.座位上的用户无法打开麦克风&lt;/p&gt;
+        <v>
+	1.关闭当前座位麦克风，操作成功提示封闭座位声音成功
+	2.用户侧toast提示：当前座位已禁麦
+	3.座位上的用户无法打开麦克风
 </v>
       </c>
     </row>
@@ -1558,16 +1486,15 @@
         <v>2</v>
       </c>
       <c r="E102" t="str">
-        <v>&lt;p&gt;
-	房主点击座位上已禁言的用户-资料卡点击操作-选择开启座位声音&lt;/p&gt;
+        <v>
+	房主点击座位上已禁言的用户-资料卡点击操作-选择开启座位声音
 </v>
       </c>
       <c r="F102" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.操作成功提示&amp;ldquo;开启座位声音已开启&amp;rdquo;&lt;br /&gt;
-	2.用户侧toast提示：当前座位声音已开启&lt;br /&gt;
-	3.座位上的用户可以自由开麦/关麦&lt;/p&gt;
+        <v>
+	1.操作成功提示开启座位声音已开启
+	2.用户侧toast提示：当前座位声音已开启
+	3.座位上的用户可以自由开麦/关麦
 </v>
       </c>
     </row>
@@ -1576,16 +1503,15 @@
         <v>3</v>
       </c>
       <c r="E103" t="str">
-        <v>&lt;p&gt;
-	管理员点击座位上的用户-资料卡点击操作-选择封闭座位声音&lt;/p&gt;
+        <v>
+	管理员点击座位上的用户-资料卡点击操作-选择封闭座位声音
 </v>
       </c>
       <c r="F103" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.关闭当前座位麦克风，操作成功提示&amp;ldquo;封闭座位声音成功&amp;rdquo;&lt;br /&gt;
-	2.用户侧toast提示：&lt;br /&gt;
-	3.座位上的用户无法打开麦克风&lt;/p&gt;
+        <v>
+	1.关闭当前座位麦克风，操作成功提示封闭座位声音成功
+	2.用户侧toast提示：
+	3.座位上的用户无法打开麦克风
 </v>
       </c>
     </row>
@@ -1594,16 +1520,15 @@
         <v>4</v>
       </c>
       <c r="E104" t="str">
-        <v>&lt;p&gt;
-	管理员点击座位上已禁言的用户-资料卡点击操作-选择开启座位声音&lt;/p&gt;
+        <v>
+	管理员点击座位上已禁言的用户-资料卡点击操作-选择开启座位声音
 </v>
       </c>
       <c r="F104" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.操作成功提示&amp;ldquo;开启座位声音成功&amp;rdquo;&lt;br /&gt;
-	2.用户侧toast提示：当前座位声音已开启&lt;br /&gt;
-	3.座位上的用户可以自由开麦/关麦&lt;/p&gt;
+        <v>
+	1.操作成功提示开启座位声音成功
+	2.用户侧toast提示：当前座位声音已开启
+	3.座位上的用户可以自由开麦/关麦
 </v>
       </c>
     </row>
@@ -1612,20 +1537,16 @@
       <c r="A106" t="str">
         <v>座位封麦-用户关麦开麦</v>
       </c>
-      <c r="B106" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C106" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B106" t="str"/>
+      <c r="C106" t="str"/>
       <c r="D106" t="str">
         <v>1</v>
       </c>
       <c r="E106" t="str">
-        <v>&lt;p&gt;麦上用户关麦，房主或管理员封闭此座位声音&lt;/p&gt;</v>
+        <v>麦上用户关麦，房主或管理员封闭此座位声音</v>
       </c>
       <c r="F106" t="str">
-        <v>&lt;p&gt;封闭成功&lt;/p&gt;</v>
+        <v>封闭成功</v>
       </c>
     </row>
     <row r="107">
@@ -1633,10 +1554,10 @@
         <v>2</v>
       </c>
       <c r="E107" t="str">
-        <v>&lt;p&gt;麦上用户开麦，房主或管理员封闭此座位声音&lt;/p&gt;</v>
+        <v>麦上用户开麦，房主或管理员封闭此座位声音</v>
       </c>
       <c r="F107" t="str">
-        <v>&lt;p&gt;封闭成功&lt;/p&gt;</v>
+        <v>封闭成功</v>
       </c>
     </row>
     <row r="108">
@@ -1644,10 +1565,10 @@
         <v>3</v>
       </c>
       <c r="E108" t="str">
-        <v>&lt;p&gt;继步骤&lt;br&gt;1，2麦上用户点击切换麦状态&lt;/p&gt;</v>
+        <v>继步骤1，2麦上用户点击切换麦状态</v>
       </c>
       <c r="F108" t="str">
-        <v>&lt;p&gt;无法切换成功&lt;/p&gt;</v>
+        <v>无法切换成功</v>
       </c>
     </row>
     <row r="109"/>
@@ -1655,23 +1576,19 @@
       <c r="A110" t="str">
         <v>语音房-封闭/开启座位失败</v>
       </c>
-      <c r="B110" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C110" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B110" t="str"/>
+      <c r="C110" t="str"/>
       <c r="D110" t="str">
         <v>1</v>
       </c>
       <c r="E110" t="str">
-        <v>&lt;p&gt;
-	房主点击未封闭的座位-选择封闭座位之前，刚好有人上麦，房主再点击封闭座位&lt;/p&gt;
+        <v>
+	房主点击未封闭的座位-选择封闭座位之前，刚好有人上麦，房主再点击封闭座位
 </v>
       </c>
       <c r="F110" t="str">
-        <v>&lt;p&gt;
-	座位状态&lt;span style="color:#ffffff;"&gt;未改&lt;/span&gt;变为封闭状态，界面toast提示&amp;quot;封闭&lt;span style="color:#ffffff;"&gt;失败&lt;/span&gt;成功&amp;quot;，上座用户断开连麦，页面toast提示&amp;ldquo;您已断开连麦&amp;rdquo;&lt;/p&gt;
+        <v>
+	座位状态未改变为封闭状态，界面toast提示封闭失败成功，上座用户断开连麦，页面toast提示您已断开连麦
 </v>
       </c>
     </row>
@@ -1680,13 +1597,13 @@
         <v>2</v>
       </c>
       <c r="E111" t="str">
-        <v>&lt;p&gt;
-	&lt;span style="color:#d3d3d3;"&gt;房主点击封闭的座位-选择开启座位，开启座位失败&lt;/span&gt;&lt;/p&gt;
+        <v>
+	房主点击封闭的座位-选择开启座位，开启座位失败
 </v>
       </c>
       <c r="F111" t="str">
-        <v>&lt;p&gt;
-	&lt;span style="color:#d3d3d3;"&gt;座位状态未改变，界面toast提示&amp;quot;开启失败&amp;quot;&lt;/span&gt;&lt;/p&gt;
+        <v>
+	座位状态未改变，界面toast提示开启失败
 </v>
       </c>
     </row>
@@ -1695,13 +1612,13 @@
         <v>3</v>
       </c>
       <c r="E112" t="str">
-        <v>&lt;p&gt;
-	管理员点击未封闭的座位-选择封闭座位之前，刚好有人上麦，管理员再点击封闭座位&lt;/p&gt;
+        <v>
+	管理员点击未封闭的座位-选择封闭座位之前，刚好有人上麦，管理员再点击封闭座位
 </v>
       </c>
       <c r="F112" t="str">
-        <v>&lt;p&gt;
-	座位状态&lt;span style="color:#ffffff;"&gt;未改&lt;/span&gt;变为封闭状态，界面toast提示&amp;quot;封闭&lt;span style="color:#ffffff;"&gt;失败&lt;/span&gt;成功&amp;quot;，上座用户断开连麦，页面toast提示&amp;ldquo;您已断开连麦&amp;rdquo;&lt;/p&gt;
+        <v>
+	座位状态未改变为封闭状态，界面toast提示封闭失败成功，上座用户断开连麦，页面toast提示您已断开连麦
 </v>
       </c>
     </row>
@@ -1710,13 +1627,13 @@
         <v>4</v>
       </c>
       <c r="E113" t="str">
-        <v>&lt;p&gt;
-	&lt;span style="color:#d3d3d3;"&gt;管理员点击封闭的座位-选择开启座位，开启座位失败&lt;/span&gt;&lt;/p&gt;
+        <v>
+	管理员点击封闭的座位-选择开启座位，开启座位失败
 </v>
       </c>
       <c r="F113" t="str">
-        <v>&lt;p&gt;
-	&lt;span style="color:#d3d3d3;"&gt;座位状态未改变，界面toast提示&amp;quot;开启失败&amp;quot;&lt;/span&gt;&lt;/p&gt;
+        <v>
+	座位状态未改变，界面toast提示开启失败
 </v>
       </c>
     </row>
@@ -1731,10 +1648,10 @@
         <v>1</v>
       </c>
       <c r="E115" t="str">
-        <v>&lt;p&gt;房主点击未封闭声音座位-选择封闭座位声音，封闭失败&lt;/p&gt;</v>
+        <v>房主点击未封闭声音座位-选择封闭座位声音，封闭失败</v>
       </c>
       <c r="F115" t="str">
-        <v>&lt;p&gt;座位声音状态未改变，界面toast提示"封闭座位声音失败"&lt;/p&gt;</v>
+        <v>座位声音状态未改变，界面toast提示"封闭座位声音失败"</v>
       </c>
     </row>
     <row r="116">
@@ -1742,10 +1659,10 @@
         <v>2</v>
       </c>
       <c r="E116" t="str">
-        <v>&lt;p&gt;房主点击封闭声音座位-选择开启座位声音，封闭失败&lt;/p&gt;</v>
+        <v>房主点击封闭声音座位-选择开启座位声音，封闭失败</v>
       </c>
       <c r="F116" t="str">
-        <v>&lt;p&gt;座位声音状态未改变，界面toast提示"开启座位声音失败"&lt;/p&gt;</v>
+        <v>座位声音状态未改变，界面toast提示"开启座位声音失败"</v>
       </c>
     </row>
     <row r="117">
@@ -1753,10 +1670,10 @@
         <v>3</v>
       </c>
       <c r="E117" t="str">
-        <v>&lt;p&gt;管理员点击未封闭声音座位-选择封闭座位声音，封闭失败&lt;/p&gt;</v>
+        <v>管理员点击未封闭声音座位-选择封闭座位声音，封闭失败</v>
       </c>
       <c r="F117" t="str">
-        <v>&lt;p&gt;座位声音状态未改变，界面toast提示"封闭座位声音失败"&lt;/p&gt;</v>
+        <v>座位声音状态未改变，界面toast提示"封闭座位声音失败"</v>
       </c>
     </row>
     <row r="118">
@@ -1764,10 +1681,10 @@
         <v>4</v>
       </c>
       <c r="E118" t="str">
-        <v>&lt;p&gt;管理员点击未封闭声音座位-选择封闭座位声音，封闭失败&lt;/p&gt;</v>
+        <v>管理员点击未封闭声音座位-选择封闭座位声音，封闭失败</v>
       </c>
       <c r="F118" t="str">
-        <v>&lt;p&gt;座位声音状态未改变，界面toast提示"开启座位声音失败"&lt;/p&gt;</v>
+        <v>座位声音状态未改变，界面toast提示"开启座位声音失败"</v>
       </c>
     </row>
     <row r="119"/>
@@ -1775,20 +1692,16 @@
       <c r="A120" t="str">
         <v>踢出房间-踢出10分钟（管理员）</v>
       </c>
-      <c r="B120" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C120" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B120" t="str"/>
+      <c r="C120" t="str"/>
       <c r="D120" t="str">
         <v>1</v>
       </c>
       <c r="E120" t="str">
-        <v>&lt;p&gt;管理员点击座位上的用户-资料卡点击操作-踢出房间&lt;/p&gt;</v>
+        <v>管理员点击座位上的用户-资料卡点击操作-踢出房间</v>
       </c>
       <c r="F120" t="str">
-        <v>&lt;p&gt;弹出框“请选择时长"，提示选择踢出时间5分钟、10分钟（后台可配置）&lt;/p&gt;</v>
+        <v>弹出框“请选择时长"，提示选择踢出时间5分钟、10分钟（后台可配置）</v>
       </c>
     </row>
     <row r="121">
@@ -1796,15 +1709,14 @@
         <v>2</v>
       </c>
       <c r="E121" t="str">
-        <v>&lt;p&gt;
-	选择10分钟，点击确定踢出按钮&lt;/p&gt;
+        <v>
+	选择10分钟，点击确定踢出按钮
 </v>
       </c>
       <c r="F121" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.管理侧toast提示&amp;ldquo;当前用户已踢出&amp;rdquo;&lt;br /&gt;
-	2.用户侧离开房间并弹窗提示&amp;ldquo;&lt;span style="color: rgb(51, 51, 51); font-family: Arial, sans-serif; font-size: 14px; background-color: rgb(255, 255, 255);"&gt;您已被移出房间，详询房间管理&lt;/span&gt;&amp;rdquo;&lt;/p&gt;
+        <v>
+	1.管理侧toast提示当前用户已踢出
+	2.用户侧离开房间并弹窗提示您已被移出房间，详询房间管理
 </v>
       </c>
     </row>
@@ -1813,13 +1725,13 @@
         <v>3</v>
       </c>
       <c r="E122" t="str">
-        <v>&lt;p&gt;
-	用户10分钟内进入原来的语音房&lt;/p&gt;
+        <v>
+	用户10分钟内进入原来的语音房
 </v>
       </c>
       <c r="F122" t="str">
-        <v>&lt;p&gt;
-	用户侧弹窗提示&amp;ldquo;&lt;span style="color: rgb(51, 51, 51); font-family: Arial, sans-serif; font-size: 14px; background-color: rgb(255, 255, 255);"&gt;您已被移出房间，详询房间管理&lt;/span&gt;&amp;rdquo;&lt;/p&gt;
+        <v>
+	用户侧弹窗提示您已被移出房间，详询房间管理
 </v>
       </c>
     </row>
@@ -1828,10 +1740,10 @@
         <v>4</v>
       </c>
       <c r="E123" t="str">
-        <v>&lt;p&gt;用户10分钟内进入其他语音房&lt;/p&gt;</v>
+        <v>用户10分钟内进入其他语音房</v>
       </c>
       <c r="F123" t="str">
-        <v>&lt;p&gt;可以正常进入语音房&lt;/p&gt;</v>
+        <v>可以正常进入语音房</v>
       </c>
     </row>
     <row r="124">
@@ -1839,10 +1751,10 @@
         <v>5</v>
       </c>
       <c r="E124" t="str">
-        <v>&lt;p&gt;用户超过10分钟再次进入原来被踢出的语音房&lt;/p&gt;</v>
+        <v>用户超过10分钟再次进入原来被踢出的语音房</v>
       </c>
       <c r="F124" t="str">
-        <v>&lt;p&gt;可以正常进入语音房&lt;/p&gt;</v>
+        <v>可以正常进入语音房</v>
       </c>
     </row>
     <row r="125"/>
@@ -1850,20 +1762,16 @@
       <c r="A126" t="str">
         <v>踢出房间-踢出观众</v>
       </c>
-      <c r="B126" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C126" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B126" t="str"/>
+      <c r="C126" t="str"/>
       <c r="D126" t="str">
         <v>1</v>
       </c>
       <c r="E126" t="str">
-        <v>&lt;p&gt;房主点击观众资料卡操作踢出房间&lt;/p&gt;</v>
+        <v>房主点击观众资料卡操作踢出房间</v>
       </c>
       <c r="F126" t="str">
-        <v>&lt;p&gt;成功踢出房间&lt;/p&gt;</v>
+        <v>成功踢出房间</v>
       </c>
     </row>
     <row r="127">
@@ -1871,10 +1779,10 @@
         <v>2</v>
       </c>
       <c r="E127" t="str">
-        <v>&lt;p&gt;管理员点击观众资料卡操作踢出房间&lt;/p&gt;</v>
+        <v>管理员点击观众资料卡操作踢出房间</v>
       </c>
       <c r="F127" t="str">
-        <v>&lt;p&gt;成功踢出房间&lt;/p&gt;</v>
+        <v>成功踢出房间</v>
       </c>
     </row>
     <row r="128">
@@ -1882,14 +1790,14 @@
         <v>3</v>
       </c>
       <c r="E128" t="str">
-        <v>&lt;p&gt;
-	继步骤1&lt;br /&gt;
-	2，踢出房间后，指定踢出时间内进入房间&lt;/p&gt;
+        <v>
+	继步骤1
+	2，踢出房间后，指定踢出时间内进入房间
 </v>
       </c>
       <c r="F128" t="str">
-        <v>&lt;p&gt;
-	用户侧弹窗提示&amp;ldquo;&lt;span style="color: rgb(51, 51, 51); font-family: Arial, sans-serif; font-size: 14px; background-color: rgb(255, 255, 255);"&gt;您已被移出房间，详询房间管理&lt;/span&gt;&amp;rdquo;&lt;/p&gt;
+        <v>
+	用户侧弹窗提示您已被移出房间，详询房间管理
 </v>
       </c>
     </row>
@@ -1898,10 +1806,10 @@
         <v>4</v>
       </c>
       <c r="E129" t="str">
-        <v>&lt;p&gt;继步骤1&lt;br&gt;2，踢出房间后，指定踢出时间后进入房间&lt;/p&gt;</v>
+        <v>继步骤12，踢出房间后，指定踢出时间后进入房间</v>
       </c>
       <c r="F129" t="str">
-        <v>&lt;p&gt;可以正常进入语音房&lt;/p&gt;</v>
+        <v>可以正常进入语音房</v>
       </c>
     </row>
     <row r="130"/>
@@ -1909,20 +1817,16 @@
       <c r="A131" t="str">
         <v>踢出房间-踢出管理员</v>
       </c>
-      <c r="B131" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C131" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B131" t="str"/>
+      <c r="C131" t="str"/>
       <c r="D131" t="str">
         <v>1</v>
       </c>
       <c r="E131" t="str">
-        <v>&lt;p&gt;房主点击管理员资料卡操作踢出房间&lt;/p&gt;</v>
+        <v>房主点击管理员资料卡操作踢出房间</v>
       </c>
       <c r="F131" t="str">
-        <v>&lt;p&gt;成功踢出房间&lt;/p&gt;</v>
+        <v>成功踢出房间</v>
       </c>
     </row>
     <row r="132">
@@ -1930,13 +1834,13 @@
         <v>2</v>
       </c>
       <c r="E132" t="str">
-        <v>&lt;p&gt;
-	继步骤1,踢出房间后，指定踢出时间内进入房间&lt;/p&gt;
+        <v>
+	继步骤1,踢出房间后，指定踢出时间内进入房间
 </v>
       </c>
       <c r="F132" t="str">
-        <v>&lt;p&gt;
-	用户侧弹窗提示&amp;ldquo;&lt;span style="color: rgb(51, 51, 51); font-family: Arial, sans-serif; font-size: 14px; background-color: rgb(255, 255, 255);"&gt;您已被移出房间，详询房间管理&lt;/span&gt;&amp;rdquo;&lt;/p&gt;
+        <v>
+	用户侧弹窗提示您已被移出房间，详询房间管理
 </v>
       </c>
     </row>
@@ -1945,10 +1849,10 @@
         <v>3</v>
       </c>
       <c r="E133" t="str">
-        <v>&lt;p&gt;继步骤1,踢出房间后，指定踢出时间后进入房间&lt;/p&gt;</v>
+        <v>继步骤1,踢出房间后，指定踢出时间后进入房间</v>
       </c>
       <c r="F133" t="str">
-        <v>&lt;p&gt;可以正常进入语音房&lt;/p&gt;</v>
+        <v>可以正常进入语音房</v>
       </c>
     </row>
     <row r="134"/>
@@ -1956,20 +1860,16 @@
       <c r="A135" t="str">
         <v>踢出房间-用户不在房间</v>
       </c>
-      <c r="B135" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C135" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B135" t="str"/>
+      <c r="C135" t="str"/>
       <c r="D135" t="str">
         <v>1</v>
       </c>
       <c r="E135" t="str">
-        <v>&lt;p&gt;房主点击观众资料卡，用户退出房间，房主操作踢出房间&lt;/p&gt;</v>
+        <v>房主点击观众资料卡，用户退出房间，房主操作踢出房间</v>
       </c>
       <c r="F135" t="str">
-        <v>&lt;p&gt;toast提示“当前用户已不在房间”&lt;/p&gt;</v>
+        <v>toast提示“当前用户已不在房间”</v>
       </c>
     </row>
     <row r="136">
@@ -1977,10 +1877,10 @@
         <v>2</v>
       </c>
       <c r="E136" t="str">
-        <v>&lt;p&gt;管理员点击观众资料卡，用户退出房间，管理员操作踢出房间&lt;/p&gt;</v>
+        <v>管理员点击观众资料卡，用户退出房间，管理员操作踢出房间</v>
       </c>
       <c r="F136" t="str">
-        <v>&lt;p&gt;toast提示“当前用户已不在房间”&lt;/p&gt;</v>
+        <v>toast提示“当前用户已不在房间”</v>
       </c>
     </row>
     <row r="137"/>
@@ -1988,20 +1888,16 @@
       <c r="A138" t="str">
         <v>踢出房间-后台修改时间</v>
       </c>
-      <c r="B138" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C138" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B138" t="str"/>
+      <c r="C138" t="str"/>
       <c r="D138" t="str">
         <v>1</v>
       </c>
       <c r="E138" t="str">
-        <v>&lt;p&gt;后台修改踢出时间为1分钟和2分钟，房主/管理员踢出麦上用户&lt;/p&gt;</v>
+        <v>后台修改踢出时间为1分钟和2分钟，房主/管理员踢出麦上用户</v>
       </c>
       <c r="F138" t="str">
-        <v>&lt;p&gt;弹出框“请选择时长"，提示选择踢出时间为后台配置的1分钟、2分钟&lt;/p&gt;</v>
+        <v>弹出框“请选择时长"，提示选择踢出时间为后台配置的1分钟、2分钟</v>
       </c>
     </row>
     <row r="139">
@@ -2009,10 +1905,10 @@
         <v>2</v>
       </c>
       <c r="E139" t="str">
-        <v>&lt;p&gt;选择1分钟后，踢出用户&lt;/p&gt;</v>
+        <v>选择1分钟后，踢出用户</v>
       </c>
       <c r="F139" t="str">
-        <v>&lt;p&gt;成功踢出用户，用户1分钟内无法进入房间，超过1分钟可以正常进入房间&lt;/p&gt;</v>
+        <v>成功踢出用户，用户1分钟内无法进入房间，超过1分钟可以正常进入房间</v>
       </c>
     </row>
     <row r="140">
@@ -2020,10 +1916,10 @@
         <v>3</v>
       </c>
       <c r="E140" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;1，选择2分钟后，踢出用户&lt;/p&gt;</v>
+        <v>接步骤1，选择2分钟后，踢出用户</v>
       </c>
       <c r="F140" t="str">
-        <v>&lt;p&gt;成功踢出用户，用户2分钟内无法进入房间，超过1分钟可以正常进入房间&lt;/p&gt;</v>
+        <v>成功踢出用户，用户2分钟内无法进入房间，超过1分钟可以正常进入房间</v>
       </c>
     </row>
     <row r="141"/>
@@ -2031,20 +1927,16 @@
       <c r="A142" t="str">
         <v>排麦列表-置顶</v>
       </c>
-      <c r="B142" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C142" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B142" t="str"/>
+      <c r="C142" t="str"/>
       <c r="D142" t="str">
         <v>1</v>
       </c>
       <c r="E142" t="str">
-        <v>&lt;p&gt;座位已满，用户点击【排】,进入排队列表，房主与管理员查看&lt;/p&gt;</v>
+        <v>座位已满，用户点击【排】,进入排队列表，房主与管理员查看</v>
       </c>
       <c r="F142" t="str">
-        <v>&lt;p&gt;列表中用户头像、性别、昵称+右侧显示置顶按钮&lt;/p&gt;</v>
+        <v>列表中用户头像、性别、昵称+右侧显示置顶按钮</v>
       </c>
     </row>
     <row r="143">
@@ -2052,10 +1944,10 @@
         <v>2</v>
       </c>
       <c r="E143" t="str">
-        <v>&lt;p&gt;继步骤&lt;br&gt;1，房主点击置顶A&lt;/p&gt;</v>
+        <v>继步骤1，房主点击置顶A</v>
       </c>
       <c r="F143" t="str">
-        <v>&lt;p&gt;A排序置顶为第一&lt;/p&gt;</v>
+        <v>A排序置顶为第一</v>
       </c>
     </row>
     <row r="144">
@@ -2063,10 +1955,10 @@
         <v>3</v>
       </c>
       <c r="E144" t="str">
-        <v>&lt;p&gt;继步骤&lt;br&gt;2，管理点击置顶B&lt;/p&gt;</v>
+        <v>继步骤2，管理点击置顶B</v>
       </c>
       <c r="F144" t="str">
-        <v>&lt;p&gt;B排序置顶为第一&lt;/p&gt;</v>
+        <v>B排序置顶为第一</v>
       </c>
     </row>
     <row r="145">
@@ -2074,11 +1966,11 @@
         <v>4</v>
       </c>
       <c r="E145" t="str">
-        <v>&lt;p&gt;继步骤&lt;br&gt;3，麦上出现空座位&lt;/p&gt;</v>
+        <v>继步骤3，麦上出现空座位</v>
       </c>
       <c r="F145" t="str">
-        <v>&lt;p&gt;B成功上麦到座位中，排麦按钮变成麦克风按钮
-A切换显示排在第一&lt;/p&gt;</v>
+        <v>B成功上麦到座位中，排麦按钮变成麦克风按钮
+A切换显示排在第一</v>
       </c>
     </row>
     <row r="146"/>
@@ -2086,20 +1978,16 @@
       <c r="A147" t="str">
         <v>排麦列表-无人排麦</v>
       </c>
-      <c r="B147" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C147" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B147" t="str"/>
+      <c r="C147" t="str"/>
       <c r="D147" t="str">
         <v>1</v>
       </c>
       <c r="E147" t="str">
-        <v>&lt;p&gt;无人排麦时，房主点击排麦进入排麦列表&lt;/p&gt;</v>
+        <v>无人排麦时，房主点击排麦进入排麦列表</v>
       </c>
       <c r="F147" t="str">
-        <v>&lt;p&gt;列表显示“当前没有在排队上座的用户”&lt;/p&gt;</v>
+        <v>列表显示“当前没有在排队上座的用户”</v>
       </c>
     </row>
     <row r="148"/>
@@ -2107,20 +1995,16 @@
       <c r="A149" t="str">
         <v>排麦列表-不同用户排麦</v>
       </c>
-      <c r="B149" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C149" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B149" t="str"/>
+      <c r="C149" t="str"/>
       <c r="D149" t="str">
         <v>1</v>
       </c>
       <c r="E149" t="str">
-        <v>&lt;p&gt;座位已满，非麦上用户点击排麦&lt;/p&gt;</v>
+        <v>座位已满，非麦上用户点击排麦</v>
       </c>
       <c r="F149" t="str">
-        <v>&lt;p&gt;可申请进入排队或取消排队入口&lt;/p&gt;</v>
+        <v>可申请进入排队或取消排队入口</v>
       </c>
     </row>
     <row r="150">
@@ -2128,13 +2012,13 @@
         <v>2</v>
       </c>
       <c r="E150" t="str">
-        <v>&lt;p&gt;
-	座位已满，麦上用户查看&lt;/p&gt;
+        <v>
+	座位已满，麦上用户查看
 </v>
       </c>
       <c r="F150" t="str">
-        <v>&lt;p&gt;
-	无&amp;ldquo;排&amp;rdquo;入口&lt;/p&gt;
+        <v>
+	无排入口
 </v>
       </c>
     </row>
@@ -2143,10 +2027,10 @@
         <v>3</v>
       </c>
       <c r="E151" t="str">
-        <v>&lt;p&gt;座位已满，管理员用户点击排麦&lt;/p&gt;</v>
+        <v>座位已满，管理员用户点击排麦</v>
       </c>
       <c r="F151" t="str">
-        <v>&lt;p&gt;可申请进入排队或取消排队入口&lt;/p&gt;</v>
+        <v>可申请进入排队或取消排队入口</v>
       </c>
     </row>
     <row r="152">
@@ -2154,10 +2038,10 @@
         <v>4</v>
       </c>
       <c r="E152" t="str">
-        <v>&lt;p&gt;座位已满，房主点击排麦&lt;/p&gt;</v>
+        <v>座位已满，房主点击排麦</v>
       </c>
       <c r="F152" t="str">
-        <v>&lt;p&gt;无申请进入排队或取消排队入口&lt;/p&gt;</v>
+        <v>无申请进入排队或取消排队入口</v>
       </c>
     </row>
     <row r="153"/>
@@ -2165,20 +2049,16 @@
       <c r="A154" t="str">
         <v>排麦列表-点击头像</v>
       </c>
-      <c r="B154" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C154" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B154" t="str"/>
+      <c r="C154" t="str"/>
       <c r="D154" t="str">
         <v>1</v>
       </c>
       <c r="E154" t="str">
-        <v>&lt;p&gt;点击排麦列表中用户头像&lt;/p&gt;</v>
+        <v>点击排麦列表中用户头像</v>
       </c>
       <c r="F154" t="str">
-        <v>&lt;p&gt;弹出用户资料卡&lt;/p&gt;</v>
+        <v>弹出用户资料卡</v>
       </c>
     </row>
     <row r="155"/>
@@ -2186,20 +2066,16 @@
       <c r="A156" t="str">
         <v>排麦列表-异常操作</v>
       </c>
-      <c r="B156" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C156" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B156" t="str"/>
+      <c r="C156" t="str"/>
       <c r="D156" t="str">
         <v>1</v>
       </c>
       <c r="E156" t="str">
-        <v>&lt;p&gt;座位已满，用户点击申请进入排麦列表，退出房间&lt;/p&gt;</v>
+        <v>座位已满，用户点击申请进入排麦列表，退出房间</v>
       </c>
       <c r="F156" t="str">
-        <v>&lt;p&gt;排麦列表不显示该用户&lt;/p&gt;</v>
+        <v>排麦列表不显示该用户</v>
       </c>
     </row>
     <row r="157">
@@ -2207,10 +2083,10 @@
         <v>2</v>
       </c>
       <c r="E157" t="str">
-        <v>&lt;p&gt;座位已满，用户点击申请进入排麦列表，网络断开&lt;/p&gt;</v>
+        <v>座位已满，用户点击申请进入排麦列表，网络断开</v>
       </c>
       <c r="F157" t="str">
-        <v>&lt;p&gt;排麦列表不显示该用户&lt;/p&gt;</v>
+        <v>排麦列表不显示该用户</v>
       </c>
     </row>
     <row r="158">
@@ -2218,10 +2094,10 @@
         <v>3</v>
       </c>
       <c r="E158" t="str">
-        <v>&lt;p&gt;座位已满，用户点击申请进入排麦列表，杀进程&lt;/p&gt;</v>
+        <v>座位已满，用户点击申请进入排麦列表，杀进程</v>
       </c>
       <c r="F158" t="str">
-        <v>&lt;p&gt;排麦列表不显示该用户&lt;/p&gt;</v>
+        <v>排麦列表不显示该用户</v>
       </c>
     </row>
     <row r="159">
@@ -2229,10 +2105,10 @@
         <v>4</v>
       </c>
       <c r="E159" t="str">
-        <v>&lt;p&gt;座位已满，用户点击申请进入排麦列表，用户被踢出房间&lt;/p&gt;</v>
+        <v>座位已满，用户点击申请进入排麦列表，用户被踢出房间</v>
       </c>
       <c r="F159" t="str">
-        <v>&lt;p&gt;排麦列表不显示该用户&lt;/p&gt;</v>
+        <v>排麦列表不显示该用户</v>
       </c>
     </row>
     <row r="160"/>
@@ -2240,20 +2116,16 @@
       <c r="A161" t="str">
         <v>管理员身份切换</v>
       </c>
-      <c r="B161" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C161" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B161" t="str"/>
+      <c r="C161" t="str"/>
       <c r="D161" t="str">
         <v>1</v>
       </c>
       <c r="E161" t="str">
-        <v>&lt;p&gt;A为管理员，点击B进行操作抱下座、封闭座位声音、踢出房间时，房主撤销A管理员身份&lt;/p&gt;</v>
+        <v>A为管理员，点击B进行操作抱下座、封闭座位声音、踢出房间时，房主撤销A管理员身份</v>
       </c>
       <c r="F161" t="str">
-        <v>&lt;p&gt;toast提示“操作失败，你没有相应权限”&lt;/p&gt;</v>
+        <v>toast提示“操作失败，你没有相应权限”</v>
       </c>
     </row>
     <row r="162">
@@ -2261,13 +2133,13 @@
         <v>2</v>
       </c>
       <c r="E162" t="str">
-        <v>&lt;p&gt;
-	A为管理员，点击B进行操作抱下座&lt;span style="color:#ffffff;"&gt;、封闭座位声音&lt;/span&gt;、踢出房间时，房主设置B管理员身份&lt;/p&gt;
+        <v>
+	A为管理员，点击B进行操作抱下座、封闭座位声音、踢出房间时，房主设置B管理员身份
 </v>
       </c>
       <c r="F162" t="str">
-        <v>&lt;p&gt;
-	toast提示&amp;ldquo;操作失败，你无权对该用户进行操作&amp;rdquo;&lt;/p&gt;
+        <v>
+	toast提示操作失败，你无权对该用户进行操作
 </v>
       </c>
     </row>
@@ -2276,23 +2148,19 @@
       <c r="A164" t="str">
         <v>抱用户下麦-用户已下麦</v>
       </c>
-      <c r="B164" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C164" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B164" t="str"/>
+      <c r="C164" t="str"/>
       <c r="D164" t="str">
         <v>1</v>
       </c>
       <c r="E164" t="str">
-        <v>&lt;p&gt;
-	房主点击座位上用户A，弹出资料卡后，A用户主动下麦，房主点击抱用户下麦&lt;/p&gt;
+        <v>
+	房主点击座位上用户A，弹出资料卡后，A用户主动下麦，房主点击抱用户下麦
 </v>
       </c>
       <c r="F164" t="str">
-        <v>&lt;p&gt;
-	toast提示&amp;ldquo;用户已断开连麦&amp;rdquo;（iOS提示已抱用户下麦，产品接受）&lt;/p&gt;
+        <v>
+	toast提示用户已断开连麦（iOS提示已抱用户下麦，产品接受）
 </v>
       </c>
     </row>
@@ -2301,13 +2169,13 @@
         <v>2</v>
       </c>
       <c r="E165" t="str">
-        <v>&lt;p&gt;
-	房主点击座位上用户A，弹出资料卡后，A用户退出房间，房主点击抱用户下麦&lt;/p&gt;
+        <v>
+	房主点击座位上用户A，弹出资料卡后，A用户退出房间，房主点击抱用户下麦
 </v>
       </c>
       <c r="F165" t="str">
-        <v>&lt;p&gt;
-	toast提示&amp;ldquo;用户已断开连麦&amp;rdquo;（iOS提示已抱用户下麦，产品接受）&lt;/p&gt;
+        <v>
+	toast提示用户已断开连麦（iOS提示已抱用户下麦，产品接受）
 </v>
       </c>
     </row>
@@ -2316,13 +2184,13 @@
         <v>3</v>
       </c>
       <c r="E166" t="str">
-        <v>&lt;p&gt;
-	管理员点击座位上用户A，弹出资料卡后，A用户主动下麦，管理员点击抱用户下麦&lt;/p&gt;
+        <v>
+	管理员点击座位上用户A，弹出资料卡后，A用户主动下麦，管理员点击抱用户下麦
 </v>
       </c>
       <c r="F166" t="str">
-        <v>&lt;p&gt;
-	toast提示&amp;ldquo;用户已断开连麦&amp;rdquo;（iOS提示已抱用户下麦，产品接受）&lt;/p&gt;
+        <v>
+	toast提示用户已断开连麦（iOS提示已抱用户下麦，产品接受）
 </v>
       </c>
     </row>
@@ -2331,13 +2199,13 @@
         <v>4</v>
       </c>
       <c r="E167" t="str">
-        <v>&lt;p&gt;
-	管理员点击座位上用户A，弹出资料卡后，A用户退出房间，管理员点击抱用户下麦&lt;/p&gt;
+        <v>
+	管理员点击座位上用户A，弹出资料卡后，A用户退出房间，管理员点击抱用户下麦
 </v>
       </c>
       <c r="F167" t="str">
-        <v>&lt;p&gt;
-	toast提示&amp;ldquo;用户已断开连麦&amp;rdquo;（iOS提示已抱用户下麦，产品接受）&lt;/p&gt;
+        <v>
+	toast提示用户已断开连麦（iOS提示已抱用户下麦，产品接受）
 </v>
       </c>
     </row>
@@ -2346,20 +2214,16 @@
       <c r="A169" t="str">
         <v>上座-切换座位</v>
       </c>
-      <c r="B169" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C169" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B169" t="str"/>
+      <c r="C169" t="str"/>
       <c r="D169" t="str">
         <v>1</v>
       </c>
       <c r="E169" t="str">
-        <v>&lt;p&gt;用户上座后切换至其他空座位A&lt;/p&gt;</v>
+        <v>用户上座后切换至其他空座位A</v>
       </c>
       <c r="F169" t="str">
-        <v>&lt;p&gt;切换成功，用户头像切换至座位A&lt;/p&gt;</v>
+        <v>切换成功，用户头像切换至座位A</v>
       </c>
     </row>
     <row r="170">
@@ -2367,10 +2231,10 @@
         <v>2</v>
       </c>
       <c r="E170" t="str">
-        <v>&lt;p&gt;用户上座后切换至其他有人座位B&lt;/p&gt;</v>
+        <v>用户上座后切换至其他有人座位B</v>
       </c>
       <c r="F170" t="str">
-        <v>&lt;p&gt;拉起该座位B的用户的资料卡&lt;/p&gt;</v>
+        <v>拉起该座位B的用户的资料卡</v>
       </c>
     </row>
     <row r="171">
@@ -2378,15 +2242,15 @@
         <v>3</v>
       </c>
       <c r="E171" t="str">
-        <v>&lt;p&gt;
-	麦上用户切换座位同时，有其他用户落座&lt;/p&gt;
+        <v>
+	麦上用户切换座位同时，有其他用户落座
 </v>
       </c>
       <c r="F171" t="str">
-        <v>&lt;p&gt;
-	视服务器情况：&lt;br /&gt;
-	1.先切换座位成功，其他用户上麦失败&lt;br /&gt;
-	2.切换时其他用户已落座，则提示切换成功或拉起该用户的个人资料卡，无异常即可&lt;/p&gt;
+        <v>
+	视服务器情况：
+	1.先切换座位成功，其他用户上麦失败
+	2.切换时其他用户已落座，则提示切换成功或拉起该用户的个人资料卡，无异常即可
 </v>
       </c>
     </row>
@@ -2395,20 +2259,16 @@
       <c r="A173" t="str">
         <v>上座-用户点击同一座位上座</v>
       </c>
-      <c r="B173" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C173" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B173" t="str"/>
+      <c r="C173" t="str"/>
       <c r="D173" t="str">
         <v>1</v>
       </c>
       <c r="E173" t="str">
-        <v>&lt;p&gt;AB用户同时点击同一空座位&lt;/p&gt;</v>
+        <v>AB用户同时点击同一空座位</v>
       </c>
       <c r="F173" t="str">
-        <v>&lt;p&gt;A用户上麦成功，B用户上麦失败toast提示“上座失败”&lt;/p&gt;</v>
+        <v>A用户上麦成功，B用户上麦失败toast提示“上座失败”</v>
       </c>
     </row>
     <row r="174"/>
@@ -2416,23 +2276,19 @@
       <c r="A175" t="str">
         <v>上座-上座后异常操作</v>
       </c>
-      <c r="B175" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C175" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B175" t="str"/>
+      <c r="C175" t="str"/>
       <c r="D175" t="str">
         <v>1</v>
       </c>
       <c r="E175" t="str">
-        <v>&lt;p&gt;
-	用户上座后断开网络，其他用户查看房间座位&lt;/p&gt;
+        <v>
+	用户上座后断开网络，其他用户查看房间座位
 </v>
       </c>
       <c r="F175" t="str">
-        <v>&lt;p&gt;
-	用户被下麦（3分钟后刷新）&lt;/p&gt;
+        <v>
+	用户被下麦（3分钟后刷新）
 </v>
       </c>
     </row>
@@ -2441,13 +2297,13 @@
         <v>2</v>
       </c>
       <c r="E176" t="str">
-        <v>&lt;p&gt;
-	用户上座后杀进程，其他用户查看房间座位&lt;/p&gt;
+        <v>
+	用户上座后杀进程，其他用户查看房间座位
 </v>
       </c>
       <c r="F176" t="str">
-        <v>&lt;p&gt;
-	用户被下麦（3分钟后刷新）&lt;/p&gt;
+        <v>
+	用户被下麦（3分钟后刷新）
 </v>
       </c>
     </row>
@@ -2456,10 +2312,10 @@
         <v>3</v>
       </c>
       <c r="E177" t="str">
-        <v>&lt;p&gt;用户上座后退出房间，其他用户查看房间座位&lt;/p&gt;</v>
+        <v>用户上座后退出房间，其他用户查看房间座位</v>
       </c>
       <c r="F177" t="str">
-        <v>&lt;p&gt;用户被下麦&lt;/p&gt;</v>
+        <v>用户被下麦</v>
       </c>
     </row>
     <row r="178"/>
@@ -2467,20 +2323,16 @@
       <c r="A179" t="str">
         <v>上座-多人开麦说话</v>
       </c>
-      <c r="B179" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C179" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B179" t="str"/>
+      <c r="C179" t="str"/>
       <c r="D179" t="str">
         <v>1</v>
       </c>
       <c r="E179" t="str">
-        <v>&lt;p&gt;ABC上麦后，同时开始开麦说话&lt;/p&gt;</v>
+        <v>ABC上麦后，同时开始开麦说话</v>
       </c>
       <c r="F179" t="str">
-        <v>&lt;p&gt;房间内用户ABC座位席同时显示说话的光圈动效，且声音正常清晰无卡顿&lt;/p&gt;</v>
+        <v>房间内用户ABC座位席同时显示说话的光圈动效，且声音正常清晰无卡顿</v>
       </c>
     </row>
     <row r="180"/>
@@ -2488,20 +2340,16 @@
       <c r="A181" t="str">
         <v>上座-关麦用户下麦</v>
       </c>
-      <c r="B181" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C181" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B181" t="str"/>
+      <c r="C181" t="str"/>
       <c r="D181" t="str">
         <v>1</v>
       </c>
       <c r="E181" t="str">
-        <v>&lt;p&gt;麦上用户静音后下麦&lt;/p&gt;</v>
+        <v>麦上用户静音后下麦</v>
       </c>
       <c r="F181" t="str">
-        <v>&lt;p&gt;用户下麦成功&lt;/p&gt;</v>
+        <v>用户下麦成功</v>
       </c>
     </row>
     <row r="182">
@@ -2509,10 +2357,10 @@
         <v>2</v>
       </c>
       <c r="E182" t="str">
-        <v>&lt;p&gt;其他用户上麦相同座位&lt;/p&gt;</v>
+        <v>其他用户上麦相同座位</v>
       </c>
       <c r="F182" t="str">
-        <v>&lt;p&gt;其他用户麦为打开状态，说话房间内其他用户可听见&lt;/p&gt;</v>
+        <v>其他用户麦为打开状态，说话房间内其他用户可听见</v>
       </c>
     </row>
     <row r="183"/>
@@ -2520,23 +2368,19 @@
       <c r="A184" t="str">
         <v>公屏-直播间规则</v>
       </c>
-      <c r="B184" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C184" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B184" t="str"/>
+      <c r="C184" t="str"/>
       <c r="D184" t="str">
         <v>1</v>
       </c>
       <c r="E184" t="str">
-        <v>&lt;p&gt;
-	用户未登录，首次进入房间A&lt;/p&gt;
+        <v>
+	用户未登录，首次进入房间A
 </v>
       </c>
       <c r="F184" t="str">
-        <v>&lt;p&gt;
-	公屏上显示安全提示文案，文案如下：追读官方提示：请自觉遵守直播间规则，任何传播违法、违规、低俗、暴力等不良信息的行为将会封停帐号。【iOS-flutter提示追音官方】&lt;/p&gt;
+        <v>
+	公屏上显示安全提示文案，文案如下：追读官方提示：请自觉遵守直播间规则，任何传播违法、违规、低俗、暴力等不良信息的行为将会封停帐号。【iOS-flutter提示追音官方】
 </v>
       </c>
     </row>
@@ -2545,14 +2389,14 @@
         <v>2</v>
       </c>
       <c r="E185" t="str">
-        <v>&lt;p&gt;
-	接步骤&lt;br /&gt;
-	1，退出语音房重进&lt;/p&gt;
+        <v>
+	接步骤
+	1，退出语音房重进
 </v>
       </c>
       <c r="F185" t="str">
-        <v>&lt;p&gt;
-	公屏&lt;span style="color:#d3d3d3;"&gt;不再&lt;/span&gt;显示安全提示文案&lt;/p&gt;
+        <v>
+	公屏不再显示安全提示文案
 </v>
       </c>
     </row>
@@ -2561,13 +2405,13 @@
         <v>3</v>
       </c>
       <c r="E186" t="str">
-        <v>&lt;p&gt;
-	退出语音房A进入其他语音房B&lt;/p&gt;
+        <v>
+	退出语音房A进入其他语音房B
 </v>
       </c>
       <c r="F186" t="str">
-        <v>&lt;p&gt;
-	公屏&lt;span style="color:#d3d3d3;"&gt;不再&lt;/span&gt;显示安全提示文案&lt;/p&gt;
+        <v>
+	公屏不再显示安全提示文案
 </v>
       </c>
     </row>
@@ -2576,10 +2420,10 @@
         <v>4</v>
       </c>
       <c r="E187" t="str">
-        <v>&lt;p&gt;用户已登录，首次进入房间A&lt;/p&gt;</v>
+        <v>用户已登录，首次进入房间A</v>
       </c>
       <c r="F187" t="str">
-        <v>&lt;p&gt;公屏上显示安全提示文案，文案如下：追读官方提示：请自觉遵守直播间规则，任何传播违法、违规、低俗、暴力等不良信息的行为将会封停帐号。&lt;/p&gt;</v>
+        <v>公屏上显示安全提示文案，文案如下：追读官方提示：请自觉遵守直播间规则，任何传播违法、违规、低俗、暴力等不良信息的行为将会封停帐号。</v>
       </c>
     </row>
     <row r="188">
@@ -2587,14 +2431,14 @@
         <v>5</v>
       </c>
       <c r="E188" t="str">
-        <v>&lt;p&gt;
-	接步骤&lt;br /&gt;
-	4，退出语音房重进&lt;/p&gt;
+        <v>
+	接步骤
+	4，退出语音房重进
 </v>
       </c>
       <c r="F188" t="str">
-        <v>&lt;p&gt;
-	公屏&lt;span style="color:#d3d3d3;"&gt;不再&lt;/span&gt;显示安全提示文案&lt;/p&gt;
+        <v>
+	公屏不再显示安全提示文案
 </v>
       </c>
     </row>
@@ -2603,13 +2447,13 @@
         <v>6</v>
       </c>
       <c r="E189" t="str">
-        <v>&lt;p&gt;
-	退出语音房A进入其他语音房B&lt;/p&gt;
+        <v>
+	退出语音房A进入其他语音房B
 </v>
       </c>
       <c r="F189" t="str">
-        <v>&lt;p&gt;
-	公屏&lt;span style="color:#d3d3d3;"&gt;不再&lt;/span&gt;显示安全提示文案&lt;/p&gt;
+        <v>
+	公屏不再显示安全提示文案
 </v>
       </c>
     </row>
@@ -2618,14 +2462,14 @@
         <v>7</v>
       </c>
       <c r="E190" t="str">
-        <v>&lt;p&gt;
-	接步骤&lt;br /&gt;
-	4，kill进程重启进入语音房&lt;/p&gt;
+        <v>
+	接步骤
+	4，kill进程重启进入语音房
 </v>
       </c>
       <c r="F190" t="str">
-        <v>&lt;p&gt;
-	公屏&lt;span style="color:#d3d3d3;"&gt;不再&lt;/span&gt;显示安全提示文案&lt;/p&gt;
+        <v>
+	公屏不再显示安全提示文案
 </v>
       </c>
     </row>
@@ -2634,20 +2478,16 @@
       <c r="A192" t="str">
         <v>公屏-查看最新消息</v>
       </c>
-      <c r="B192" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C192" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B192" t="str"/>
+      <c r="C192" t="str"/>
       <c r="D192" t="str">
         <v>1</v>
       </c>
       <c r="E192" t="str">
-        <v>&lt;p&gt;当前公屏消息较多，用户从上往下滑动查看公屏页面&lt;/p&gt;</v>
+        <v>当前公屏消息较多，用户从上往下滑动查看公屏页面</v>
       </c>
       <c r="F192" t="str">
-        <v>&lt;p&gt;可以查看更多历史消息&lt;/p&gt;</v>
+        <v>可以查看更多历史消息</v>
       </c>
     </row>
     <row r="193">
@@ -2655,16 +2495,15 @@
         <v>2</v>
       </c>
       <c r="E193" t="str">
-        <v>&lt;p&gt;
-	接步骤&lt;br /&gt;
-	1，用户停留在历史消息页面，此时有用户发言&lt;/p&gt;
+        <v>
+	接步骤
+	1，用户停留在历史消息页面，此时有用户发言
 </v>
       </c>
       <c r="F193" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.用户仍然停留在历史消息页面&lt;br /&gt;
-	2.在底部出现【查看最新消息】按钮（iOS是提示x条新消息）&lt;/p&gt;
+        <v>
+	1.用户仍然停留在历史消息页面
+	2.在底部出现【查看最新消息】按钮（iOS是提示x条新消息）
 </v>
       </c>
     </row>
@@ -2673,13 +2512,13 @@
         <v>3</v>
       </c>
       <c r="E194" t="str">
-        <v>&lt;p&gt;
-	点击【查看最新消息】按钮（（iOS点击【x条新消息】按钮））&lt;/p&gt;
+        <v>
+	点击【查看最新消息】按钮（（iOS点击【x条新消息】按钮））
 </v>
       </c>
       <c r="F194" t="str">
-        <v>&lt;p&gt;
-	用户页面定位到最新消息的位置，【查看最新消息】按钮消失&lt;/p&gt;
+        <v>
+	用户页面定位到最新消息的位置，【查看最新消息】按钮消失
 </v>
       </c>
     </row>
@@ -2688,11 +2527,11 @@
         <v>4</v>
       </c>
       <c r="E195" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;2，此时不点击【查看最新消息】按钮，继续往上滑动页面&lt;/p&gt;</v>
+        <v>接步骤2，此时不点击【查看最新消息】按钮，继续往上滑动页面</v>
       </c>
       <c r="F195" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.可以查看更多历史消息
-&lt;br&gt;2.底部【查看最新消息】保持显示&lt;/p&gt;</v>
+        <v>1.可以查看更多历史消息
+2.底部【查看最新消息】保持显示</v>
       </c>
     </row>
     <row r="196">
@@ -2700,10 +2539,10 @@
         <v>5</v>
       </c>
       <c r="E196" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;2，此时不点击【查看最新消息】按钮，手动滑动到底部查看最新消息&lt;/p&gt;</v>
+        <v>接步骤2，此时不点击【查看最新消息】按钮，手动滑动到底部查看最新消息</v>
       </c>
       <c r="F196" t="str">
-        <v>&lt;p&gt;滑到底部时【查看最新消息】按钮消失&lt;/p&gt;</v>
+        <v>滑到底部时【查看最新消息】按钮消失</v>
       </c>
     </row>
     <row r="197"/>
@@ -2711,20 +2550,16 @@
       <c r="A198" t="str">
         <v>公屏-同时发送聊天消息</v>
       </c>
-      <c r="B198" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C198" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B198" t="str"/>
+      <c r="C198" t="str"/>
       <c r="D198" t="str">
         <v>1</v>
       </c>
       <c r="E198" t="str">
-        <v>&lt;p&gt;AB用户同时点击聊天，发送聊天消息，查看公屏显示&lt;/p&gt;</v>
+        <v>AB用户同时点击聊天，发送聊天消息，查看公屏显示</v>
       </c>
       <c r="F198" t="str">
-        <v>&lt;p&gt;公屏中显示AB聊天消息，内容不重叠丢失&lt;/p&gt;</v>
+        <v>公屏中显示AB聊天消息，内容不重叠丢失</v>
       </c>
     </row>
     <row r="199"/>
@@ -2732,20 +2567,16 @@
       <c r="A200" t="str">
         <v>公屏-多人进场流水</v>
       </c>
-      <c r="B200" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C200" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B200" t="str"/>
+      <c r="C200" t="str"/>
       <c r="D200" t="str">
         <v>1</v>
       </c>
       <c r="E200" t="str">
-        <v>&lt;p&gt;ABC多人同时进入语音房间，查看公屏显示&lt;/p&gt;</v>
+        <v>ABC多人同时进入语音房间，查看公屏显示</v>
       </c>
       <c r="F200" t="str">
-        <v>&lt;p&gt;公屏中显示ABC进场消息，内容不重叠丢失&lt;/p&gt;</v>
+        <v>公屏中显示ABC进场消息，内容不重叠丢失</v>
       </c>
     </row>
     <row r="201"/>
@@ -2753,20 +2584,16 @@
       <c r="A202" t="str">
         <v>用户操作关麦</v>
       </c>
-      <c r="B202" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C202" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B202" t="str"/>
+      <c r="C202" t="str"/>
       <c r="D202" t="str">
         <v>1</v>
       </c>
       <c r="E202" t="str">
-        <v>&lt;p&gt;游客点击关闭扬声器，房间内麦上用户说话&lt;/p&gt;</v>
+        <v>游客点击关闭扬声器，房间内麦上用户说话</v>
       </c>
       <c r="F202" t="str">
-        <v>&lt;p&gt;状态切换成功，用户听不见房间内声音&lt;/p&gt;</v>
+        <v>状态切换成功，用户听不见房间内声音</v>
       </c>
     </row>
     <row r="203">
@@ -2774,10 +2601,10 @@
         <v>2</v>
       </c>
       <c r="E203" t="str">
-        <v>&lt;p&gt;观众点击关闭扬声器，房间内麦上用户说话&lt;/p&gt;</v>
+        <v>观众点击关闭扬声器，房间内麦上用户说话</v>
       </c>
       <c r="F203" t="str">
-        <v>&lt;p&gt;状态切换成功，用户听不见房间内声音&lt;/p&gt;</v>
+        <v>状态切换成功，用户听不见房间内声音</v>
       </c>
     </row>
     <row r="204">
@@ -2785,10 +2612,10 @@
         <v>3</v>
       </c>
       <c r="E204" t="str">
-        <v>&lt;p&gt;麦上点击关闭扬声器，房间内麦上用户说话&lt;/p&gt;</v>
+        <v>麦上点击关闭扬声器，房间内麦上用户说话</v>
       </c>
       <c r="F204" t="str">
-        <v>&lt;p&gt;状态切换成功，用户听不见房间内声音&lt;/p&gt;</v>
+        <v>状态切换成功，用户听不见房间内声音</v>
       </c>
     </row>
     <row r="205">
@@ -2796,10 +2623,10 @@
         <v>4</v>
       </c>
       <c r="E205" t="str">
-        <v>&lt;p&gt;房主点击关闭扬声器，房间内麦上用户说话&lt;/p&gt;</v>
+        <v>房主点击关闭扬声器，房间内麦上用户说话</v>
       </c>
       <c r="F205" t="str">
-        <v>&lt;p&gt;状态切换成功，用户听不见房间内声音&lt;/p&gt;</v>
+        <v>状态切换成功，用户听不见房间内声音</v>
       </c>
     </row>
     <row r="206"/>
@@ -2807,20 +2634,16 @@
       <c r="A207" t="str">
         <v>用户操作开麦</v>
       </c>
-      <c r="B207" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C207" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B207" t="str"/>
+      <c r="C207" t="str"/>
       <c r="D207" t="str">
         <v>1</v>
       </c>
       <c r="E207" t="str">
-        <v>&lt;p&gt;游客点击打开扬声器，房间内麦上用户说话&lt;/p&gt;</v>
+        <v>游客点击打开扬声器，房间内麦上用户说话</v>
       </c>
       <c r="F207" t="str">
-        <v>&lt;p&gt;状态切换成功，用户可听见房间内声音&lt;/p&gt;</v>
+        <v>状态切换成功，用户可听见房间内声音</v>
       </c>
     </row>
     <row r="208">
@@ -2828,10 +2651,10 @@
         <v>2</v>
       </c>
       <c r="E208" t="str">
-        <v>&lt;p&gt;观众点击打开扬声器，房间内麦上用户说话&lt;/p&gt;</v>
+        <v>观众点击打开扬声器，房间内麦上用户说话</v>
       </c>
       <c r="F208" t="str">
-        <v>&lt;p&gt;状态切换成功，用户可听见房间内声音&lt;/p&gt;</v>
+        <v>状态切换成功，用户可听见房间内声音</v>
       </c>
     </row>
     <row r="209">
@@ -2839,10 +2662,10 @@
         <v>3</v>
       </c>
       <c r="E209" t="str">
-        <v>&lt;p&gt;麦上点击打开声器，房间内麦上用户说话&lt;/p&gt;</v>
+        <v>麦上点击打开声器，房间内麦上用户说话</v>
       </c>
       <c r="F209" t="str">
-        <v>&lt;p&gt;状态切换成功，用户可听见房间内声音&lt;/p&gt;</v>
+        <v>状态切换成功，用户可听见房间内声音</v>
       </c>
     </row>
     <row r="210">
@@ -2850,10 +2673,10 @@
         <v>4</v>
       </c>
       <c r="E210" t="str">
-        <v>&lt;p&gt;房主点击打开扬声器，房间内麦上用户说话&lt;/p&gt;</v>
+        <v>房主点击打开扬声器，房间内麦上用户说话</v>
       </c>
       <c r="F210" t="str">
-        <v>&lt;p&gt;状态切换成功，用户可听见房间内声音&lt;/p&gt;</v>
+        <v>状态切换成功，用户可听见房间内声音</v>
       </c>
     </row>
     <row r="211"/>
@@ -2861,20 +2684,16 @@
       <c r="A212" t="str">
         <v>用户操作放音与静音</v>
       </c>
-      <c r="B212" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C212" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B212" t="str"/>
+      <c r="C212" t="str"/>
       <c r="D212" t="str">
         <v>1</v>
       </c>
       <c r="E212" t="str">
-        <v>&lt;p&gt;麦上用户点击静音，用户说话&lt;/p&gt;</v>
+        <v>麦上用户点击静音，用户说话</v>
       </c>
       <c r="F212" t="str">
-        <v>&lt;p&gt;状态切换成功，房间内用户不可听见用户声音&lt;/p&gt;</v>
+        <v>状态切换成功，房间内用户不可听见用户声音</v>
       </c>
     </row>
     <row r="213">
@@ -2882,10 +2701,10 @@
         <v>2</v>
       </c>
       <c r="E213" t="str">
-        <v>&lt;p&gt;麦上用户点击打开放音，用户说话&lt;/p&gt;</v>
+        <v>麦上用户点击打开放音，用户说话</v>
       </c>
       <c r="F213" t="str">
-        <v>&lt;p&gt;状态切换成功，房间内用户可听见用户声音&lt;/p&gt;</v>
+        <v>状态切换成功，房间内用户可听见用户声音</v>
       </c>
     </row>
     <row r="214"/>
@@ -2899,10 +2718,10 @@
         <v>1</v>
       </c>
       <c r="E215" t="str">
-        <v>&lt;p&gt;观众查看房主资料卡&lt;/p&gt;</v>
+        <v>观众查看房主资料卡</v>
       </c>
       <c r="F215" t="str">
-        <v>&lt;p&gt;底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名、关注、送花、送礼、举报&lt;/p&gt;</v>
+        <v>底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名、关注、送花、送礼、举报</v>
       </c>
     </row>
     <row r="216">
@@ -2910,10 +2729,10 @@
         <v>2</v>
       </c>
       <c r="E216" t="str">
-        <v>&lt;p&gt;观众查看管理员资料卡&lt;/p&gt;</v>
+        <v>观众查看管理员资料卡</v>
       </c>
       <c r="F216" t="str">
-        <v>&lt;p&gt;底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名、关注、送花、送礼、举报&lt;/p&gt;</v>
+        <v>底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名、关注、送花、送礼、举报</v>
       </c>
     </row>
     <row r="217">
@@ -2921,10 +2740,10 @@
         <v>3</v>
       </c>
       <c r="E217" t="str">
-        <v>&lt;p&gt;观众查看麦上用户资料卡&lt;/p&gt;</v>
+        <v>观众查看麦上用户资料卡</v>
       </c>
       <c r="F217" t="str">
-        <v>&lt;p&gt;底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名、关注、送花、送礼、举报&lt;/p&gt;</v>
+        <v>底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名、关注、送花、送礼、举报</v>
       </c>
     </row>
     <row r="218">
@@ -2932,13 +2751,13 @@
         <v>4</v>
       </c>
       <c r="E218" t="str">
-        <v>&lt;p&gt;
-	观众查看其他麦下观众资料卡&lt;/p&gt;
+        <v>
+	观众查看其他麦下观众资料卡
 </v>
       </c>
       <c r="F218" t="str">
-        <v>&lt;p&gt;
-	底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名、关注、送花、举报&lt;/p&gt;
+        <v>
+	底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名、关注、送花、举报
 </v>
       </c>
     </row>
@@ -2947,10 +2766,10 @@
         <v>5</v>
       </c>
       <c r="E219" t="str">
-        <v>&lt;p&gt;观众点击自己用户头像&lt;/p&gt;</v>
+        <v>观众点击自己用户头像</v>
       </c>
       <c r="F219" t="str">
-        <v>&lt;p&gt;底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名&lt;/p&gt;</v>
+        <v>底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名</v>
       </c>
     </row>
     <row r="220"/>
@@ -2958,20 +2777,16 @@
       <c r="A221" t="str">
         <v>资料卡-关注</v>
       </c>
-      <c r="B221" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C221" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B221" t="str"/>
+      <c r="C221" t="str"/>
       <c r="D221" t="str">
         <v>1</v>
       </c>
       <c r="E221" t="str">
-        <v>&lt;p&gt;点击麦下未关注用户的公屏发言昵称&lt;/p&gt;</v>
+        <v>点击麦下未关注用户的公屏发言昵称</v>
       </c>
       <c r="F221" t="str">
-        <v>&lt;p&gt;调起用户资料卡，资料卡上有关注按钮&lt;/p&gt;</v>
+        <v>调起用户资料卡，资料卡上有关注按钮</v>
       </c>
     </row>
     <row r="222">
@@ -2979,10 +2794,10 @@
         <v>2</v>
       </c>
       <c r="E222" t="str">
-        <v>&lt;p&gt;点击关注按钮&lt;/p&gt;</v>
+        <v>点击关注按钮</v>
       </c>
       <c r="F222" t="str">
-        <v>&lt;p&gt;toast提示“关注成功”，资料卡上关注按钮不显示&lt;/p&gt;</v>
+        <v>toast提示“关注成功”，资料卡上关注按钮不显示</v>
       </c>
     </row>
     <row r="223">
@@ -2990,10 +2805,10 @@
         <v>3</v>
       </c>
       <c r="E223" t="str">
-        <v>&lt;p&gt;点击麦上任意未关注用户的头像&lt;/p&gt;</v>
+        <v>点击麦上任意未关注用户的头像</v>
       </c>
       <c r="F223" t="str">
-        <v>&lt;p&gt;调起用户资料卡，资料卡上有关注按钮&lt;/p&gt;</v>
+        <v>调起用户资料卡，资料卡上有关注按钮</v>
       </c>
     </row>
     <row r="224">
@@ -3001,10 +2816,10 @@
         <v>4</v>
       </c>
       <c r="E224" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;3，点击关注按钮&lt;/p&gt;</v>
+        <v>接步骤3，点击关注按钮</v>
       </c>
       <c r="F224" t="str">
-        <v>&lt;p&gt;toast提示“关注成功”，资料卡上关注按钮不显示&lt;/p&gt;</v>
+        <v>toast提示“关注成功”，资料卡上关注按钮不显示</v>
       </c>
     </row>
     <row r="225"/>
@@ -3012,20 +2827,16 @@
       <c r="A226" t="str">
         <v>房主资料卡-举报/关注/送花/送礼</v>
       </c>
-      <c r="B226" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C226" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B226" t="str"/>
+      <c r="C226" t="str"/>
       <c r="D226" t="str">
         <v>1</v>
       </c>
       <c r="E226" t="str">
-        <v>&lt;p&gt;游客点击房主&lt;/p&gt;</v>
+        <v>游客点击房主</v>
       </c>
       <c r="F226" t="str">
-        <v>&lt;p&gt;弹出资料卡，有举报、关注、送花、送礼入口&lt;/p&gt;</v>
+        <v>弹出资料卡，有举报、关注、送花、送礼入口</v>
       </c>
     </row>
     <row r="227">
@@ -3033,10 +2844,10 @@
         <v>2</v>
       </c>
       <c r="E227" t="str">
-        <v>&lt;p&gt;麦下观众点击房主&lt;/p&gt;</v>
+        <v>麦下观众点击房主</v>
       </c>
       <c r="F227" t="str">
-        <v>&lt;p&gt;弹出资料卡，有举报、关注、送花、送礼入口&lt;/p&gt;</v>
+        <v>弹出资料卡，有举报、关注、送花、送礼入口</v>
       </c>
     </row>
     <row r="228">
@@ -3044,10 +2855,10 @@
         <v>3</v>
       </c>
       <c r="E228" t="str">
-        <v>&lt;p&gt;麦上用户点击房主&lt;/p&gt;</v>
+        <v>麦上用户点击房主</v>
       </c>
       <c r="F228" t="str">
-        <v>&lt;p&gt;弹出资料卡，有举报、关注、送花、送礼入口&lt;/p&gt;</v>
+        <v>弹出资料卡，有举报、关注、送花、送礼入口</v>
       </c>
     </row>
     <row r="229">
@@ -3055,10 +2866,10 @@
         <v>4</v>
       </c>
       <c r="E229" t="str">
-        <v>&lt;p&gt;接步骤1~&lt;br&gt;3，分别点击举报、关注、送花、送礼&lt;/p&gt;</v>
+        <v>接步骤1~3，分别点击举报、关注、送花、送礼</v>
       </c>
       <c r="F229" t="str">
-        <v>&lt;p&gt;不同身份用户操作，功能正常&lt;/p&gt;</v>
+        <v>不同身份用户操作，功能正常</v>
       </c>
     </row>
     <row r="230"/>
@@ -3066,20 +2877,16 @@
       <c r="A231" t="str">
         <v>管理员资料卡-举报/关注/送花/送礼</v>
       </c>
-      <c r="B231" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C231" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B231" t="str"/>
+      <c r="C231" t="str"/>
       <c r="D231" t="str">
         <v>1</v>
       </c>
       <c r="E231" t="str">
-        <v>&lt;p&gt;游客点击管理&lt;/p&gt;</v>
+        <v>游客点击管理</v>
       </c>
       <c r="F231" t="str">
-        <v>&lt;p&gt;弹出资料卡，有举报、关注、送花、送礼入口&lt;/p&gt;</v>
+        <v>弹出资料卡，有举报、关注、送花、送礼入口</v>
       </c>
     </row>
     <row r="232">
@@ -3087,10 +2894,10 @@
         <v>2</v>
       </c>
       <c r="E232" t="str">
-        <v>&lt;p&gt;麦下观众点击管理&lt;/p&gt;</v>
+        <v>麦下观众点击管理</v>
       </c>
       <c r="F232" t="str">
-        <v>&lt;p&gt;弹出资料卡，有举报、关注、送花、送礼入口&lt;/p&gt;</v>
+        <v>弹出资料卡，有举报、关注、送花、送礼入口</v>
       </c>
     </row>
     <row r="233">
@@ -3098,10 +2905,10 @@
         <v>3</v>
       </c>
       <c r="E233" t="str">
-        <v>&lt;p&gt;麦上用户点击管理&lt;/p&gt;</v>
+        <v>麦上用户点击管理</v>
       </c>
       <c r="F233" t="str">
-        <v>&lt;p&gt;弹出资料卡，有举报、关注、送花、送礼入口&lt;/p&gt;</v>
+        <v>弹出资料卡，有举报、关注、送花、送礼入口</v>
       </c>
     </row>
     <row r="234">
@@ -3109,14 +2916,14 @@
         <v>4</v>
       </c>
       <c r="E234" t="str">
-        <v>&lt;p&gt;
-	接步骤1~&lt;br /&gt;
-	3，分别点击举报、关注、送花、送礼&lt;/p&gt;
+        <v>
+	接步骤1~
+	3，分别点击举报、关注、送花、送礼
 </v>
       </c>
       <c r="F234" t="str">
-        <v>&lt;p&gt;
-	不同身份用户操作，功能正常（游客需要弹出登录入口）&lt;/p&gt;
+        <v>
+	不同身份用户操作，功能正常（游客需要弹出登录入口）
 </v>
       </c>
     </row>
@@ -3125,20 +2932,16 @@
       <c r="A236" t="str">
         <v>普通用户资料卡-举报/关注/送花/送礼</v>
       </c>
-      <c r="B236" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C236" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B236" t="str"/>
+      <c r="C236" t="str"/>
       <c r="D236" t="str">
         <v>1</v>
       </c>
       <c r="E236" t="str">
-        <v>&lt;p&gt;麦上用户点击其他麦上用户头像&lt;/p&gt;</v>
+        <v>麦上用户点击其他麦上用户头像</v>
       </c>
       <c r="F236" t="str">
-        <v>&lt;p&gt;弹出资料卡，有举报、关注、送花、送礼入口&lt;/p&gt;</v>
+        <v>弹出资料卡，有举报、关注、送花、送礼入口</v>
       </c>
     </row>
     <row r="237">
@@ -3146,13 +2949,13 @@
         <v>2</v>
       </c>
       <c r="E237" t="str">
-        <v>&lt;p&gt;
-	麦上用户点击其他麦下用户公屏昵称&lt;/p&gt;
+        <v>
+	麦上用户点击其他麦下用户公屏昵称
 </v>
       </c>
       <c r="F237" t="str">
-        <v>&lt;p&gt;
-	弹出资料卡，有举报、关注、送花入口&lt;/p&gt;
+        <v>
+	弹出资料卡，有举报、关注、送花入口
 </v>
       </c>
     </row>
@@ -3161,10 +2964,10 @@
         <v>3</v>
       </c>
       <c r="E238" t="str">
-        <v>&lt;p&gt;麦下用户点击其他麦上用户头像&lt;/p&gt;</v>
+        <v>麦下用户点击其他麦上用户头像</v>
       </c>
       <c r="F238" t="str">
-        <v>&lt;p&gt;弹出资料卡，有举报、关注、送花、送礼入口&lt;/p&gt;</v>
+        <v>弹出资料卡，有举报、关注、送花、送礼入口</v>
       </c>
     </row>
     <row r="239">
@@ -3172,13 +2975,13 @@
         <v>4</v>
       </c>
       <c r="E239" t="str">
-        <v>&lt;p&gt;
-	麦下用户点击其他麦下用户公屏昵称&lt;/p&gt;
+        <v>
+	麦下用户点击其他麦下用户公屏昵称
 </v>
       </c>
       <c r="F239" t="str">
-        <v>&lt;p&gt;
-	弹出资料卡，有举报、关注、送花入口&lt;/p&gt;
+        <v>
+	弹出资料卡，有举报、关注、送花入口
 </v>
       </c>
     </row>
@@ -3187,10 +2990,10 @@
         <v>5</v>
       </c>
       <c r="E240" t="str">
-        <v>&lt;p&gt;接步骤1~&lt;br&gt;4，分别点击举报、关注、送花、送礼&lt;/p&gt;</v>
+        <v>接步骤1~4，分别点击举报、关注、送花、送礼</v>
       </c>
       <c r="F240" t="str">
-        <v>&lt;p&gt;不同状态用户操作，功能正常&lt;/p&gt;</v>
+        <v>不同状态用户操作，功能正常</v>
       </c>
     </row>
     <row r="241"/>
@@ -3204,10 +3007,10 @@
         <v>1</v>
       </c>
       <c r="E242" t="str">
-        <v>&lt;p&gt;点击用户，当前用户可赠送鲜花&lt;/p&gt;</v>
+        <v>点击用户，当前用户可赠送鲜花</v>
       </c>
       <c r="F242" t="str">
-        <v>&lt;p&gt;赠送按钮显示为送花&lt;/p&gt;</v>
+        <v>赠送按钮显示为送花</v>
       </c>
     </row>
     <row r="243">
@@ -3215,10 +3018,10 @@
         <v>2</v>
       </c>
       <c r="E243" t="str">
-        <v>&lt;p&gt;点击送花&lt;/p&gt;</v>
+        <v>点击送花</v>
       </c>
       <c r="F243" t="str">
-        <v>&lt;p&gt;按钮切换显示为倒计时状态，倒计时X分钟&lt;/p&gt;</v>
+        <v>按钮切换显示为倒计时状态，倒计时X分钟</v>
       </c>
     </row>
     <row r="244">
@@ -3226,15 +3029,14 @@
         <v>3</v>
       </c>
       <c r="E244" t="str">
-        <v>&lt;p&gt;
-	倒计时时间内点击送花&lt;/p&gt;
+        <v>
+	倒计时时间内点击送花
 </v>
       </c>
       <c r="F244" t="str">
-        <v>&lt;p&gt;
-	&lt;span style="color:#ffffff;"&gt;没有交互，不能送花&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	toast提示请再等待XX秒才可送出一朵花&lt;/p&gt;
+        <v>
+	没有交互，不能送花
+	toast提示请再等待XX秒才可送出一朵花
 </v>
       </c>
     </row>
@@ -3243,10 +3045,10 @@
         <v>4</v>
       </c>
       <c r="E245" t="str">
-        <v>&lt;p&gt;倒计时结束&lt;/p&gt;</v>
+        <v>倒计时结束</v>
       </c>
       <c r="F245" t="str">
-        <v>&lt;p&gt;倒计时结束，鲜花按钮变成可点击状态，点击后送花成功，该用户资料页上鲜花的鲜花数+1&lt;/p&gt;</v>
+        <v>倒计时结束，鲜花按钮变成可点击状态，点击后送花成功，该用户资料页上鲜花的鲜花数+1</v>
       </c>
     </row>
     <row r="246"/>
@@ -3254,20 +3056,16 @@
       <c r="A247" t="str">
         <v>资料卡-房主/管理员点击自己用户头像</v>
       </c>
-      <c r="B247" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C247" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B247" t="str"/>
+      <c r="C247" t="str"/>
       <c r="D247" t="str">
         <v>1</v>
       </c>
       <c r="E247" t="str">
-        <v>&lt;p&gt;房主点击自己用户头像&lt;/p&gt;</v>
+        <v>房主点击自己用户头像</v>
       </c>
       <c r="F247" t="str">
-        <v>&lt;p&gt;底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名&lt;/p&gt;</v>
+        <v>底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名</v>
       </c>
     </row>
     <row r="248">
@@ -3275,10 +3073,10 @@
         <v>3</v>
       </c>
       <c r="E248" t="str">
-        <v>&lt;p&gt;管理员点击自己用户头像&lt;/p&gt;</v>
+        <v>管理员点击自己用户头像</v>
       </c>
       <c r="F248" t="str">
-        <v>&lt;p&gt;底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名&lt;/p&gt;</v>
+        <v>底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名</v>
       </c>
     </row>
   </sheetData>
